--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_20_4.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_20_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3759946.023025459</v>
+        <v>-3760612.640461881</v>
       </c>
     </row>
     <row r="7">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>84.54481721446606</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>84.54481721446601</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>81.15405778267977</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>84.54481721446606</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>84.54481721446606</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>84.54481721446601</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>36.42873081279479</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>23.12798498931302</v>
       </c>
       <c r="T11" t="n">
-        <v>18.30111863218002</v>
+        <v>18.30111863218005</v>
       </c>
       <c r="U11" t="n">
-        <v>46.03812530998763</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>10.12783106033393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>10.10539220841557</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>84.54481721446606</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>51.85943295535305</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.037534323606003</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -1500,22 +1500,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>10.83321277868799</v>
+        <v>10.83321277868802</v>
       </c>
       <c r="U12" t="n">
-        <v>33.1161990041195</v>
+        <v>84.54481721446601</v>
       </c>
       <c r="V12" t="n">
-        <v>36.53747918923767</v>
+        <v>84.54481721446601</v>
       </c>
       <c r="W12" t="n">
-        <v>62.59314185084702</v>
+        <v>62.59314185084705</v>
       </c>
       <c r="X12" t="n">
-        <v>13.20147271330603</v>
+        <v>66.3126931795715</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.27284440786104</v>
+        <v>19.27284440786107</v>
       </c>
     </row>
     <row r="13">
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>31.23138271479818</v>
+        <v>31.23138271479821</v>
       </c>
       <c r="T13" t="n">
-        <v>19.62677120258704</v>
+        <v>19.62677120258707</v>
       </c>
       <c r="U13" t="n">
-        <v>84.54481721446606</v>
+        <v>84.54481721446601</v>
       </c>
       <c r="V13" t="n">
-        <v>40.99757345828533</v>
+        <v>40.99757345828536</v>
       </c>
       <c r="W13" t="n">
-        <v>84.54481721446606</v>
+        <v>84.54481721446601</v>
       </c>
       <c r="X13" t="n">
-        <v>17.80801368207796</v>
+        <v>17.80801368207798</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.02983108800385</v>
+        <v>13.02983108800387</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>84.54481721446606</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>84.54481721446606</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>84.54481721446601</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>38.038344189707</v>
       </c>
       <c r="H14" t="n">
-        <v>33.03797138100862</v>
+        <v>84.54481721446601</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>36.42873081279468</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>23.12798498931299</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>18.30111863218002</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>84.54481721446606</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>84.54481721446601</v>
       </c>
     </row>
     <row r="15">
@@ -1695,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>10.10539220841557</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1704,10 +1704,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>84.54481721446606</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>51.85943295535305</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.037534323606003</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>81.20383220068085</v>
       </c>
       <c r="T15" t="n">
-        <v>10.83321277868799</v>
+        <v>10.8332127786879</v>
       </c>
       <c r="U15" t="n">
-        <v>33.1161990041195</v>
+        <v>33.11619900411942</v>
       </c>
       <c r="V15" t="n">
-        <v>36.53747918923767</v>
+        <v>36.53747918923759</v>
       </c>
       <c r="W15" t="n">
-        <v>62.59314185084702</v>
+        <v>62.59314185084693</v>
       </c>
       <c r="X15" t="n">
-        <v>13.20147271330603</v>
+        <v>84.54481721446601</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.27284440786104</v>
+        <v>19.27284440786096</v>
       </c>
     </row>
     <row r="16">
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>31.23138271479818</v>
+        <v>31.2313827147981</v>
       </c>
       <c r="T16" t="n">
-        <v>19.62677120258704</v>
+        <v>19.62677120258695</v>
       </c>
       <c r="U16" t="n">
-        <v>84.54481721446606</v>
+        <v>84.54481721446601</v>
       </c>
       <c r="V16" t="n">
-        <v>40.99757345828533</v>
+        <v>40.99757345828525</v>
       </c>
       <c r="W16" t="n">
-        <v>84.54481721446606</v>
+        <v>84.54481721446601</v>
       </c>
       <c r="X16" t="n">
-        <v>17.80801368207796</v>
+        <v>17.80801368207787</v>
       </c>
       <c r="Y16" t="n">
-        <v>13.02983108800385</v>
+        <v>13.02983108800376</v>
       </c>
     </row>
     <row r="17">
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>16.57010772354265</v>
+        <v>84.54481721446601</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>51.85943295535305</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,19 +1965,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.037534323606003</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>84.54481721446606</v>
+        <v>74.46707500250166</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>84.54481721446601</v>
       </c>
       <c r="T18" t="n">
-        <v>84.54481721446606</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>84.54481721446606</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>84.54481721446601</v>
       </c>
     </row>
     <row r="19">
@@ -2093,7 +2093,7 @@
         <v>67.76635731968099</v>
       </c>
       <c r="G20" t="n">
-        <v>83.3930999360968</v>
+        <v>83.39309993609683</v>
       </c>
       <c r="H20" t="n">
         <v>11.46376063065043</v>
@@ -2160,16 +2160,16 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>68.42954067889565</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>84.54481721446606</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>84.54481721446606</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2178,10 +2178,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>84.54481721446606</v>
+        <v>84.54481721446601</v>
       </c>
       <c r="J21" t="n">
-        <v>51.85943295535305</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>84.54481721446601</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2220,13 +2220,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>84.54481721446601</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>16.57010772354269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2394,19 +2394,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>68.42954067889565</v>
       </c>
       <c r="C24" t="n">
-        <v>16.57010772354263</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>84.54481721446602</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>84.54481721446602</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>84.54481721446602</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>51.85943295535305</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2451,16 +2451,16 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>84.54481721446601</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>84.54481721446601</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>84.54481721446601</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2555,25 +2555,25 @@
         <v>161.2467968077939</v>
       </c>
       <c r="C26" t="n">
-        <v>137.3650538111394</v>
+        <v>137.3650538111393</v>
       </c>
       <c r="D26" t="n">
-        <v>124.9317160721879</v>
+        <v>124.9317160721878</v>
       </c>
       <c r="E26" t="n">
-        <v>158.6384684915968</v>
+        <v>158.6384684915967</v>
       </c>
       <c r="F26" t="n">
-        <v>190.3588060699741</v>
+        <v>190.358806069974</v>
       </c>
       <c r="G26" t="n">
-        <v>205.9855486863899</v>
+        <v>205.9855486863898</v>
       </c>
       <c r="H26" t="n">
-        <v>134.0562093809436</v>
+        <v>134.0562093809435</v>
       </c>
       <c r="I26" t="n">
-        <v>27.69972896891994</v>
+        <v>27.69972896891986</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.39898314543818</v>
+        <v>14.3989831454381</v>
       </c>
       <c r="T26" t="n">
-        <v>9.572116788305207</v>
+        <v>9.572116788305122</v>
       </c>
       <c r="U26" t="n">
-        <v>37.30912346611282</v>
+        <v>37.30912346611274</v>
       </c>
       <c r="V26" t="n">
-        <v>108.0393400391126</v>
+        <v>108.0393400391125</v>
       </c>
       <c r="W26" t="n">
-        <v>125.0560202557275</v>
+        <v>125.0560202557274</v>
       </c>
       <c r="X26" t="n">
         <v>146.9422707246667</v>
       </c>
       <c r="Y26" t="n">
-        <v>169.4451238484105</v>
+        <v>169.4451238484104</v>
       </c>
     </row>
     <row r="27">
@@ -2631,10 +2631,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>32.45779074658083</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2676,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.037534323606003</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -2685,22 +2685,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>2.104210934813179</v>
+        <v>2.104210934813093</v>
       </c>
       <c r="U27" t="n">
-        <v>227.5579479808848</v>
+        <v>237.2276407302841</v>
       </c>
       <c r="V27" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>266.7045835770116</v>
+        <v>53.86414000697212</v>
       </c>
       <c r="X27" t="n">
-        <v>4.47247086943122</v>
+        <v>4.472470869431135</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.54384256398623</v>
+        <v>10.54384256398615</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>22.50238087092337</v>
+        <v>22.50238087092329</v>
       </c>
       <c r="T28" t="n">
-        <v>10.89776935871223</v>
+        <v>10.89776935871214</v>
       </c>
       <c r="U28" t="n">
-        <v>75.81581537059127</v>
+        <v>75.81581537059118</v>
       </c>
       <c r="V28" t="n">
-        <v>32.26857161441052</v>
+        <v>32.26857161441043</v>
       </c>
       <c r="W28" t="n">
-        <v>77.47026351929594</v>
+        <v>77.47026351929586</v>
       </c>
       <c r="X28" t="n">
-        <v>9.079011838203144</v>
+        <v>9.079011838203058</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.300829244129034</v>
+        <v>4.300829244128948</v>
       </c>
     </row>
     <row r="29">
@@ -2789,10 +2789,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>161.2467968077939</v>
+        <v>161.246796807794</v>
       </c>
       <c r="C29" t="n">
-        <v>137.3650538111394</v>
+        <v>137.3650538111395</v>
       </c>
       <c r="D29" t="n">
         <v>124.9317160721879</v>
@@ -2810,7 +2810,7 @@
         <v>134.0562093809436</v>
       </c>
       <c r="I29" t="n">
-        <v>27.69972896891994</v>
+        <v>27.69972896891997</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.39898314543818</v>
+        <v>14.39898314543822</v>
       </c>
       <c r="T29" t="n">
-        <v>9.572116788305207</v>
+        <v>9.572116788305237</v>
       </c>
       <c r="U29" t="n">
-        <v>37.30912346611282</v>
+        <v>37.30912346611285</v>
       </c>
       <c r="V29" t="n">
-        <v>108.0393400391126</v>
+        <v>108.0393400391127</v>
       </c>
       <c r="W29" t="n">
         <v>125.0560202557275</v>
       </c>
       <c r="X29" t="n">
-        <v>146.9422707246667</v>
+        <v>146.9422707246668</v>
       </c>
       <c r="Y29" t="n">
         <v>169.4451238484105</v>
@@ -2880,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2919,25 +2919,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>50.38484602431784</v>
       </c>
       <c r="T30" t="n">
-        <v>2.104210934813179</v>
+        <v>2.104210934813207</v>
       </c>
       <c r="U30" t="n">
-        <v>24.38719716024469</v>
+        <v>24.38719716024472</v>
       </c>
       <c r="V30" t="n">
-        <v>27.80847734536286</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>263.0724251512183</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
-        <v>217.3129144394706</v>
+        <v>4.472470869431248</v>
       </c>
       <c r="Y30" t="n">
-        <v>223.3842861340256</v>
+        <v>10.54384256398626</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>22.50238087092337</v>
+        <v>22.5023808709234</v>
       </c>
       <c r="T31" t="n">
-        <v>10.89776935871223</v>
+        <v>10.89776935871225</v>
       </c>
       <c r="U31" t="n">
-        <v>75.81581537059127</v>
+        <v>75.8158153705913</v>
       </c>
       <c r="V31" t="n">
-        <v>32.26857161441052</v>
+        <v>32.26857161441055</v>
       </c>
       <c r="W31" t="n">
-        <v>77.47026351929594</v>
+        <v>77.47026351929597</v>
       </c>
       <c r="X31" t="n">
-        <v>9.079011838203144</v>
+        <v>9.079011838203172</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.300829244129034</v>
+        <v>4.300829244129062</v>
       </c>
     </row>
     <row r="32">
@@ -3032,22 +3032,22 @@
         <v>137.3650538111394</v>
       </c>
       <c r="D32" t="n">
-        <v>124.9317160721879</v>
+        <v>124.9317160721878</v>
       </c>
       <c r="E32" t="n">
         <v>158.6384684915967</v>
       </c>
       <c r="F32" t="n">
-        <v>190.3588060699741</v>
+        <v>190.358806069974</v>
       </c>
       <c r="G32" t="n">
-        <v>205.9855486863899</v>
+        <v>205.9855486863898</v>
       </c>
       <c r="H32" t="n">
         <v>134.0562093809435</v>
       </c>
       <c r="I32" t="n">
-        <v>27.69972896891991</v>
+        <v>27.69972896891989</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.39898314543817</v>
+        <v>14.39898314543814</v>
       </c>
       <c r="T32" t="n">
-        <v>9.572116788305181</v>
+        <v>9.572116788305152</v>
       </c>
       <c r="U32" t="n">
-        <v>37.30912346611279</v>
+        <v>37.30912346611277</v>
       </c>
       <c r="V32" t="n">
         <v>108.0393400391126</v>
       </c>
       <c r="W32" t="n">
-        <v>125.0560202557275</v>
+        <v>125.0560202557274</v>
       </c>
       <c r="X32" t="n">
         <v>146.9422707246667</v>
       </c>
       <c r="Y32" t="n">
-        <v>169.4451238484105</v>
+        <v>169.4451238484104</v>
       </c>
     </row>
     <row r="33">
@@ -3150,31 +3150,31 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.037534323606003</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>11.70101460531585</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>191.4697362153245</v>
       </c>
       <c r="T33" t="n">
-        <v>2.10421093481315</v>
+        <v>2.104210934813122</v>
       </c>
       <c r="U33" t="n">
-        <v>233.5954823044909</v>
+        <v>237.2276407302841</v>
       </c>
       <c r="V33" t="n">
-        <v>240.6489209154022</v>
+        <v>27.8084773453628</v>
       </c>
       <c r="W33" t="n">
-        <v>266.7045835770116</v>
+        <v>53.86414000697215</v>
       </c>
       <c r="X33" t="n">
-        <v>4.472470869431191</v>
+        <v>4.472470869431163</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.5438425639862</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>22.50238087092334</v>
+        <v>22.50238087092331</v>
       </c>
       <c r="T34" t="n">
-        <v>10.8977693587122</v>
+        <v>10.89776935871217</v>
       </c>
       <c r="U34" t="n">
-        <v>75.81581537059124</v>
+        <v>75.81581537059121</v>
       </c>
       <c r="V34" t="n">
-        <v>32.26857161441049</v>
+        <v>32.26857161441046</v>
       </c>
       <c r="W34" t="n">
-        <v>77.47026351929591</v>
+        <v>77.47026351929588</v>
       </c>
       <c r="X34" t="n">
-        <v>9.079011838203115</v>
+        <v>9.079011838203087</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.300829244129005</v>
+        <v>4.300829244128977</v>
       </c>
     </row>
     <row r="35">
@@ -3272,10 +3272,10 @@
         <v>101.5370678635605</v>
       </c>
       <c r="E35" t="n">
-        <v>135.2438202829693</v>
+        <v>135.2438202829694</v>
       </c>
       <c r="F35" t="n">
-        <v>166.9641578613466</v>
+        <v>166.9641578613467</v>
       </c>
       <c r="G35" t="n">
         <v>182.5909004777625</v>
@@ -3284,7 +3284,7 @@
         <v>110.6615611723161</v>
       </c>
       <c r="I35" t="n">
-        <v>4.305080760292498</v>
+        <v>4.305080760292526</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3320,10 +3320,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>13.91447525748538</v>
+        <v>13.91447525748541</v>
       </c>
       <c r="V35" t="n">
-        <v>84.64469183048519</v>
+        <v>84.64469183048521</v>
       </c>
       <c r="W35" t="n">
         <v>101.6613720471001</v>
@@ -3345,16 +3345,16 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>92.39496442423521</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3363,10 +3363,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>107.1390224876151</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>51.85943295535305</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.037534323606003</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -3396,22 +3396,22 @@
         <v>191.4697362153245</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>214.9446545048526</v>
       </c>
       <c r="U36" t="n">
-        <v>0.9925489516172481</v>
+        <v>0.9925489516172765</v>
       </c>
       <c r="V36" t="n">
-        <v>4.413829136735416</v>
+        <v>4.413829136735444</v>
       </c>
       <c r="W36" t="n">
-        <v>30.46949179834476</v>
+        <v>30.46949179834479</v>
       </c>
       <c r="X36" t="n">
-        <v>35.03690433681127</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>52.42116716196382</v>
+        <v>52.42116716196385</v>
       </c>
       <c r="V37" t="n">
-        <v>8.873923405783074</v>
+        <v>8.873923405783103</v>
       </c>
       <c r="W37" t="n">
-        <v>54.0756153106685</v>
+        <v>54.07561531066852</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3506,22 +3506,22 @@
         <v>113.970405602512</v>
       </c>
       <c r="D38" t="n">
-        <v>101.5370678635604</v>
+        <v>101.5370678635605</v>
       </c>
       <c r="E38" t="n">
-        <v>135.2438202829693</v>
+        <v>135.2438202829694</v>
       </c>
       <c r="F38" t="n">
-        <v>166.9641578613466</v>
+        <v>166.9641578613467</v>
       </c>
       <c r="G38" t="n">
-        <v>182.5909004777624</v>
+        <v>182.5909004777625</v>
       </c>
       <c r="H38" t="n">
         <v>110.6615611723161</v>
       </c>
       <c r="I38" t="n">
-        <v>4.305080760292469</v>
+        <v>4.305080760292526</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>13.91447525748535</v>
+        <v>13.91447525748541</v>
       </c>
       <c r="V38" t="n">
-        <v>84.64469183048516</v>
+        <v>84.64469183048521</v>
       </c>
       <c r="W38" t="n">
-        <v>101.6613720471</v>
+        <v>101.6613720471001</v>
       </c>
       <c r="X38" t="n">
         <v>123.5476225160393</v>
       </c>
       <c r="Y38" t="n">
-        <v>146.050475639783</v>
+        <v>146.0504756397831</v>
       </c>
     </row>
     <row r="39">
@@ -3579,10 +3579,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>98.70841198367015</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3627,28 +3627,28 @@
         <v>6.037534323606003</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>71.13836452136997</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>191.4697362153245</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0.9925489516172197</v>
+        <v>237.2276407302841</v>
       </c>
       <c r="V39" t="n">
-        <v>4.413829136735387</v>
+        <v>4.413829136735444</v>
       </c>
       <c r="W39" t="n">
-        <v>30.46949179834473</v>
+        <v>30.46949179834479</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>52.42116716196379</v>
+        <v>52.42116716196385</v>
       </c>
       <c r="V40" t="n">
-        <v>8.873923405783046</v>
+        <v>8.873923405783103</v>
       </c>
       <c r="W40" t="n">
-        <v>54.07561531066847</v>
+        <v>54.07561531066852</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>137.8521485991665</v>
+        <v>137.8521485991666</v>
       </c>
       <c r="C41" t="n">
-        <v>113.970405602512</v>
+        <v>113.9704056025121</v>
       </c>
       <c r="D41" t="n">
-        <v>101.5370678635605</v>
+        <v>101.5370678635606</v>
       </c>
       <c r="E41" t="n">
         <v>135.2438202829694</v>
       </c>
       <c r="F41" t="n">
-        <v>166.9641578613467</v>
+        <v>166.9641578613468</v>
       </c>
       <c r="G41" t="n">
-        <v>182.5909004777625</v>
+        <v>182.5909004777626</v>
       </c>
       <c r="H41" t="n">
-        <v>110.6615611723161</v>
+        <v>110.6615611723162</v>
       </c>
       <c r="I41" t="n">
-        <v>4.305080760292526</v>
+        <v>4.305080760292611</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>13.91447525748541</v>
+        <v>13.91447525748549</v>
       </c>
       <c r="V41" t="n">
-        <v>84.64469183048521</v>
+        <v>84.6446918304853</v>
       </c>
       <c r="W41" t="n">
-        <v>101.6613720471001</v>
+        <v>101.6613720471002</v>
       </c>
       <c r="X41" t="n">
-        <v>123.5476225160393</v>
+        <v>123.5476225160394</v>
       </c>
       <c r="Y41" t="n">
-        <v>146.0504756397831</v>
+        <v>146.0504756397832</v>
       </c>
     </row>
     <row r="42">
@@ -3834,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>79.54415877959386</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3861,31 +3861,31 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.037534323606003</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>191.4697362153245</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>214.9446545048526</v>
       </c>
       <c r="U42" t="n">
-        <v>40.21636355428611</v>
+        <v>0.9925489516173618</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>4.413829136735529</v>
       </c>
       <c r="W42" t="n">
-        <v>30.46949179834479</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>52.42116716196385</v>
+        <v>52.42116716196394</v>
       </c>
       <c r="V43" t="n">
-        <v>8.873923405783103</v>
+        <v>8.873923405783188</v>
       </c>
       <c r="W43" t="n">
-        <v>54.07561531066852</v>
+        <v>54.07561531066861</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -4053,19 +4053,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>125.8928390992768</v>
       </c>
       <c r="F45" t="n">
-        <v>20.88757411642178</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4098,13 +4098,13 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.037534323606003</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>191.4697362153245</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4119,7 +4119,7 @@
         <v>30.46949179834479</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177.5611959114322</v>
+        <v>296.3316894422144</v>
       </c>
       <c r="C11" t="n">
-        <v>177.5611959114322</v>
+        <v>210.932884175077</v>
       </c>
       <c r="D11" t="n">
-        <v>177.5611959114322</v>
+        <v>128.9590884349965</v>
       </c>
       <c r="E11" t="n">
-        <v>177.5611959114322</v>
+        <v>128.9590884349965</v>
       </c>
       <c r="F11" t="n">
-        <v>92.16239064429473</v>
+        <v>128.9590884349965</v>
       </c>
       <c r="G11" t="n">
-        <v>6.763585377157285</v>
+        <v>128.9590884349965</v>
       </c>
       <c r="H11" t="n">
-        <v>6.763585377157285</v>
+        <v>43.5602831678591</v>
       </c>
       <c r="I11" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="J11" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="K11" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="L11" t="n">
         <v>55.38741258664101</v>
@@ -5054,37 +5054,37 @@
         <v>215.8463415097256</v>
       </c>
       <c r="O11" t="n">
-        <v>252.0987650477381</v>
+        <v>299.545710552047</v>
       </c>
       <c r="P11" t="n">
-        <v>252.0987650477381</v>
+        <v>299.545710552047</v>
       </c>
       <c r="Q11" t="n">
-        <v>328.2841766533315</v>
+        <v>338.179268857864</v>
       </c>
       <c r="R11" t="n">
-        <v>338.1792688578643</v>
+        <v>338.179268857864</v>
       </c>
       <c r="S11" t="n">
-        <v>338.1792688578643</v>
+        <v>314.817667858558</v>
       </c>
       <c r="T11" t="n">
-        <v>319.6932904415208</v>
+        <v>296.3316894422144</v>
       </c>
       <c r="U11" t="n">
-        <v>273.1901335627454</v>
+        <v>296.3316894422144</v>
       </c>
       <c r="V11" t="n">
-        <v>273.1901335627454</v>
+        <v>296.3316894422144</v>
       </c>
       <c r="W11" t="n">
-        <v>273.1901335627454</v>
+        <v>296.3316894422144</v>
       </c>
       <c r="X11" t="n">
-        <v>273.1901335627454</v>
+        <v>296.3316894422144</v>
       </c>
       <c r="Y11" t="n">
-        <v>262.9600011785697</v>
+        <v>296.3316894422144</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>154.7531231329499</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="C12" t="n">
-        <v>144.5456562557625</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="D12" t="n">
-        <v>144.5456562557625</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="E12" t="n">
-        <v>144.5456562557625</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="F12" t="n">
-        <v>144.5456562557625</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="G12" t="n">
-        <v>59.14685098862501</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="H12" t="n">
-        <v>59.14685098862501</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="I12" t="n">
-        <v>59.14685098862501</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="J12" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="K12" t="n">
-        <v>6.763585377157285</v>
+        <v>45.76878079825745</v>
       </c>
       <c r="L12" t="n">
-        <v>87.08116173090006</v>
+        <v>129.4681498405788</v>
       </c>
       <c r="M12" t="n">
-        <v>170.7805307732215</v>
+        <v>213.1675188829001</v>
       </c>
       <c r="N12" t="n">
-        <v>254.4798998155429</v>
+        <v>254.4798998155427</v>
       </c>
       <c r="O12" t="n">
-        <v>338.1792688578643</v>
+        <v>254.4798998155427</v>
       </c>
       <c r="P12" t="n">
-        <v>338.1792688578643</v>
+        <v>338.179268857864</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.0807493390703</v>
+        <v>338.179268857864</v>
       </c>
       <c r="R12" t="n">
-        <v>332.0807493390703</v>
+        <v>338.179268857864</v>
       </c>
       <c r="S12" t="n">
-        <v>332.0807493390703</v>
+        <v>338.179268857864</v>
       </c>
       <c r="T12" t="n">
-        <v>321.1381101686785</v>
+        <v>327.2366296874721</v>
       </c>
       <c r="U12" t="n">
-        <v>287.6874041039113</v>
+        <v>241.8378244203347</v>
       </c>
       <c r="V12" t="n">
-        <v>250.7808594683177</v>
+        <v>156.4390191531973</v>
       </c>
       <c r="W12" t="n">
-        <v>187.5554636593813</v>
+        <v>93.2136233442609</v>
       </c>
       <c r="X12" t="n">
-        <v>174.2206427368499</v>
+        <v>26.23110498105735</v>
       </c>
       <c r="Y12" t="n">
-        <v>154.7531231329499</v>
+        <v>6.76358537715728</v>
       </c>
     </row>
     <row r="13">
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="C13" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="D13" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="E13" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="F13" t="n">
-        <v>71.29629928979803</v>
+        <v>71.296299289798</v>
       </c>
       <c r="G13" t="n">
-        <v>71.29629928979803</v>
+        <v>71.296299289798</v>
       </c>
       <c r="H13" t="n">
-        <v>71.29629928979803</v>
+        <v>71.296299289798</v>
       </c>
       <c r="I13" t="n">
-        <v>110.3248578188722</v>
+        <v>71.296299289798</v>
       </c>
       <c r="J13" t="n">
-        <v>110.3248578188722</v>
+        <v>134.0953589841151</v>
       </c>
       <c r="K13" t="n">
-        <v>110.3248578188722</v>
+        <v>217.7947280264365</v>
       </c>
       <c r="L13" t="n">
-        <v>110.3248578188722</v>
+        <v>301.4940970687578</v>
       </c>
       <c r="M13" t="n">
-        <v>194.0242268611936</v>
+        <v>301.4940970687578</v>
       </c>
       <c r="N13" t="n">
-        <v>277.723595903515</v>
+        <v>301.4940970687578</v>
       </c>
       <c r="O13" t="n">
         <v>301.4940970687578</v>
@@ -5227,7 +5227,7 @@
         <v>269.9472458416889</v>
       </c>
       <c r="T13" t="n">
-        <v>250.1222244249344</v>
+        <v>250.1222244249343</v>
       </c>
       <c r="U13" t="n">
         <v>164.7234191577969</v>
@@ -5236,13 +5236,13 @@
         <v>123.3117287958925</v>
       </c>
       <c r="W13" t="n">
-        <v>37.91292352875507</v>
+        <v>37.91292352875512</v>
       </c>
       <c r="X13" t="n">
-        <v>19.92503092059551</v>
+        <v>19.92503092059554</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>125.5340789079398</v>
+        <v>252.7804635907266</v>
       </c>
       <c r="C14" t="n">
-        <v>125.5340789079398</v>
+        <v>252.7804635907266</v>
       </c>
       <c r="D14" t="n">
-        <v>40.13527364080235</v>
+        <v>252.7804635907266</v>
       </c>
       <c r="E14" t="n">
-        <v>40.13527364080235</v>
+        <v>252.7804635907266</v>
       </c>
       <c r="F14" t="n">
-        <v>40.13527364080235</v>
+        <v>167.3816583235893</v>
       </c>
       <c r="G14" t="n">
-        <v>40.13527364080235</v>
+        <v>128.9590884349964</v>
       </c>
       <c r="H14" t="n">
-        <v>6.763585377157285</v>
+        <v>43.56028316785898</v>
       </c>
       <c r="I14" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="J14" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="K14" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="L14" t="n">
         <v>55.38741258664101</v>
       </c>
       <c r="M14" t="n">
-        <v>138.3667488501958</v>
+        <v>139.0867816289623</v>
       </c>
       <c r="N14" t="n">
-        <v>215.8463415097256</v>
+        <v>216.5663742884921</v>
       </c>
       <c r="O14" t="n">
-        <v>252.0987650477381</v>
+        <v>252.8187978265046</v>
       </c>
       <c r="P14" t="n">
-        <v>328.2841766533315</v>
+        <v>336.5181668688259</v>
       </c>
       <c r="Q14" t="n">
-        <v>328.2841766533315</v>
+        <v>336.5181668688259</v>
       </c>
       <c r="R14" t="n">
-        <v>338.1792688578643</v>
+        <v>338.179268857864</v>
       </c>
       <c r="S14" t="n">
-        <v>314.8176678585582</v>
+        <v>338.179268857864</v>
       </c>
       <c r="T14" t="n">
-        <v>296.3316894422147</v>
+        <v>338.179268857864</v>
       </c>
       <c r="U14" t="n">
-        <v>296.3316894422147</v>
+        <v>338.179268857864</v>
       </c>
       <c r="V14" t="n">
-        <v>296.3316894422147</v>
+        <v>338.179268857864</v>
       </c>
       <c r="W14" t="n">
-        <v>296.3316894422147</v>
+        <v>338.179268857864</v>
       </c>
       <c r="X14" t="n">
-        <v>210.9328841750772</v>
+        <v>338.179268857864</v>
       </c>
       <c r="Y14" t="n">
-        <v>210.9328841750772</v>
+        <v>252.7804635907266</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>154.7531231329499</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="C15" t="n">
-        <v>154.7531231329499</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="D15" t="n">
-        <v>154.7531231329499</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="E15" t="n">
-        <v>154.7531231329499</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="F15" t="n">
-        <v>144.5456562557625</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="G15" t="n">
-        <v>144.5456562557625</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="H15" t="n">
-        <v>144.5456562557625</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="I15" t="n">
-        <v>59.14685098862501</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="J15" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="K15" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="L15" t="n">
-        <v>90.46295441947869</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="M15" t="n">
-        <v>90.46295441947869</v>
+        <v>87.08116173090001</v>
       </c>
       <c r="N15" t="n">
-        <v>170.7805307732215</v>
+        <v>170.7805307732214</v>
       </c>
       <c r="O15" t="n">
-        <v>254.4798998155429</v>
+        <v>254.4798998155427</v>
       </c>
       <c r="P15" t="n">
-        <v>338.1792688578643</v>
+        <v>338.179268857864</v>
       </c>
       <c r="Q15" t="n">
-        <v>332.0807493390703</v>
+        <v>338.179268857864</v>
       </c>
       <c r="R15" t="n">
-        <v>332.0807493390703</v>
+        <v>338.179268857864</v>
       </c>
       <c r="S15" t="n">
-        <v>332.0807493390703</v>
+        <v>256.1551959278834</v>
       </c>
       <c r="T15" t="n">
-        <v>321.1381101686785</v>
+        <v>245.2125567574915</v>
       </c>
       <c r="U15" t="n">
-        <v>287.6874041039113</v>
+        <v>211.7618506927244</v>
       </c>
       <c r="V15" t="n">
-        <v>250.7808594683177</v>
+        <v>174.8553060571309</v>
       </c>
       <c r="W15" t="n">
-        <v>187.5554636593813</v>
+        <v>111.6299102481946</v>
       </c>
       <c r="X15" t="n">
-        <v>174.2206427368499</v>
+        <v>26.23110498105724</v>
       </c>
       <c r="Y15" t="n">
-        <v>154.7531231329499</v>
+        <v>6.76358537715728</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="C16" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="D16" t="n">
-        <v>65.10308893785661</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="E16" t="n">
-        <v>126.9140364466568</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="F16" t="n">
-        <v>141.2162694956237</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="G16" t="n">
-        <v>141.2162694956237</v>
+        <v>41.82555471519876</v>
       </c>
       <c r="H16" t="n">
-        <v>141.2162694956237</v>
+        <v>41.82555471519876</v>
       </c>
       <c r="I16" t="n">
-        <v>141.2162694956237</v>
+        <v>80.85411324427298</v>
       </c>
       <c r="J16" t="n">
-        <v>141.2162694956237</v>
+        <v>134.0953589841146</v>
       </c>
       <c r="K16" t="n">
-        <v>141.2162694956237</v>
+        <v>134.0953589841146</v>
       </c>
       <c r="L16" t="n">
-        <v>141.2162694956237</v>
+        <v>217.7947280264359</v>
       </c>
       <c r="M16" t="n">
-        <v>141.2162694956237</v>
+        <v>217.7947280264359</v>
       </c>
       <c r="N16" t="n">
-        <v>141.2162694956237</v>
+        <v>301.4940970687572</v>
       </c>
       <c r="O16" t="n">
-        <v>141.2162694956237</v>
+        <v>301.4940970687572</v>
       </c>
       <c r="P16" t="n">
-        <v>224.9156385379451</v>
+        <v>301.4940970687572</v>
       </c>
       <c r="Q16" t="n">
-        <v>301.4940970687578</v>
+        <v>301.4940970687572</v>
       </c>
       <c r="R16" t="n">
-        <v>301.4940970687578</v>
+        <v>301.4940970687572</v>
       </c>
       <c r="S16" t="n">
-        <v>269.9472458416889</v>
+        <v>269.9472458416885</v>
       </c>
       <c r="T16" t="n">
-        <v>250.1222244249344</v>
+        <v>250.122224424934</v>
       </c>
       <c r="U16" t="n">
-        <v>164.7234191577969</v>
+        <v>164.7234191577966</v>
       </c>
       <c r="V16" t="n">
-        <v>123.3117287958925</v>
+        <v>123.3117287958923</v>
       </c>
       <c r="W16" t="n">
-        <v>37.91292352875507</v>
+        <v>37.91292352875489</v>
       </c>
       <c r="X16" t="n">
-        <v>19.92503092059551</v>
+        <v>19.92503092059543</v>
       </c>
       <c r="Y16" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>224.7243025594536</v>
+        <v>224.7243025594533</v>
       </c>
       <c r="C17" t="n">
-        <v>209.8024792656693</v>
+        <v>209.8024792656691</v>
       </c>
       <c r="D17" t="n">
-        <v>207.439582980927</v>
+        <v>207.4395829809267</v>
       </c>
       <c r="E17" t="n">
-        <v>171.0294620301152</v>
+        <v>171.0294620301149</v>
       </c>
       <c r="F17" t="n">
-        <v>102.5785960506393</v>
+        <v>102.578596050639</v>
       </c>
       <c r="G17" t="n">
         <v>18.34314156973353</v>
       </c>
       <c r="H17" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="I17" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="J17" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="K17" t="n">
-        <v>6.763585377157285</v>
+        <v>90.46295441947863</v>
       </c>
       <c r="L17" t="n">
-        <v>55.38741258664101</v>
+        <v>139.0867816289624</v>
       </c>
       <c r="M17" t="n">
-        <v>138.3667488501958</v>
+        <v>222.7861506712837</v>
       </c>
       <c r="N17" t="n">
-        <v>215.8463415097256</v>
+        <v>301.9268453198516</v>
       </c>
       <c r="O17" t="n">
-        <v>252.0987650477381</v>
+        <v>338.179268857864</v>
       </c>
       <c r="P17" t="n">
-        <v>252.0987650477381</v>
+        <v>338.179268857864</v>
       </c>
       <c r="Q17" t="n">
-        <v>252.0987650477381</v>
+        <v>338.179268857864</v>
       </c>
       <c r="R17" t="n">
-        <v>252.0987650477381</v>
+        <v>338.179268857864</v>
       </c>
       <c r="S17" t="n">
-        <v>252.0987650477381</v>
+        <v>338.179268857864</v>
       </c>
       <c r="T17" t="n">
-        <v>252.0987650477381</v>
+        <v>338.179268857864</v>
       </c>
       <c r="U17" t="n">
-        <v>335.7981340900595</v>
+        <v>338.179268857864</v>
       </c>
       <c r="V17" t="n">
-        <v>338.1792688578643</v>
+        <v>338.179268857864</v>
       </c>
       <c r="W17" t="n">
-        <v>335.6908127917688</v>
+        <v>335.6908127917686</v>
       </c>
       <c r="X17" t="n">
-        <v>311.0950330196742</v>
+        <v>311.095033019674</v>
       </c>
       <c r="Y17" t="n">
-        <v>263.7690985771313</v>
+        <v>263.769098577131</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>59.14685098862501</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="C18" t="n">
-        <v>59.14685098862501</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="D18" t="n">
-        <v>59.14685098862501</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="E18" t="n">
-        <v>59.14685098862501</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="F18" t="n">
-        <v>59.14685098862501</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="G18" t="n">
-        <v>59.14685098862501</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="H18" t="n">
-        <v>59.14685098862501</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="I18" t="n">
-        <v>59.14685098862501</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="J18" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="K18" t="n">
         <v>45.76878079825745</v>
       </c>
       <c r="L18" t="n">
-        <v>87.08116173090006</v>
+        <v>87.08116173090001</v>
       </c>
       <c r="M18" t="n">
-        <v>170.7805307732215</v>
+        <v>87.08116173090001</v>
       </c>
       <c r="N18" t="n">
-        <v>170.7805307732215</v>
+        <v>170.7805307732214</v>
       </c>
       <c r="O18" t="n">
-        <v>254.4798998155429</v>
+        <v>254.4798998155427</v>
       </c>
       <c r="P18" t="n">
-        <v>338.1792688578643</v>
+        <v>338.179268857864</v>
       </c>
       <c r="Q18" t="n">
-        <v>332.0807493390703</v>
+        <v>338.179268857864</v>
       </c>
       <c r="R18" t="n">
-        <v>246.6819440719329</v>
+        <v>262.9600011785694</v>
       </c>
       <c r="S18" t="n">
-        <v>246.6819440719329</v>
+        <v>177.5611959114321</v>
       </c>
       <c r="T18" t="n">
-        <v>161.2831388047954</v>
+        <v>177.5611959114321</v>
       </c>
       <c r="U18" t="n">
-        <v>75.88433353765799</v>
+        <v>177.5611959114321</v>
       </c>
       <c r="V18" t="n">
-        <v>75.88433353765799</v>
+        <v>177.5611959114321</v>
       </c>
       <c r="W18" t="n">
-        <v>75.88433353765799</v>
+        <v>177.5611959114321</v>
       </c>
       <c r="X18" t="n">
-        <v>75.88433353765799</v>
+        <v>177.5611959114321</v>
       </c>
       <c r="Y18" t="n">
-        <v>75.88433353765799</v>
+        <v>92.16239064429467</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="C19" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="D19" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="E19" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="F19" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="G19" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="H19" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="I19" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="J19" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="K19" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="L19" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="M19" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="N19" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="O19" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="P19" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="Q19" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="R19" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="S19" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="T19" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="U19" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="V19" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="W19" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="X19" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="Y19" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>224.7243025594538</v>
+        <v>224.7243025594536</v>
       </c>
       <c r="C20" t="n">
-        <v>209.8024792656696</v>
+        <v>209.8024792656694</v>
       </c>
       <c r="D20" t="n">
-        <v>207.4395829809273</v>
+        <v>207.4395829809271</v>
       </c>
       <c r="E20" t="n">
-        <v>171.0294620301155</v>
+        <v>171.0294620301153</v>
       </c>
       <c r="F20" t="n">
-        <v>102.5785960506397</v>
+        <v>102.5785960506395</v>
       </c>
       <c r="G20" t="n">
-        <v>18.34314156973348</v>
+        <v>18.34314156973347</v>
       </c>
       <c r="H20" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="I20" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="J20" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="K20" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="L20" t="n">
-        <v>55.38741258664101</v>
+        <v>79.61339326838943</v>
       </c>
       <c r="M20" t="n">
-        <v>138.3667488501958</v>
+        <v>162.5927295319442</v>
       </c>
       <c r="N20" t="n">
-        <v>215.8463415097256</v>
+        <v>240.072322191474</v>
       </c>
       <c r="O20" t="n">
-        <v>252.0987650477381</v>
+        <v>323.7716912337954</v>
       </c>
       <c r="P20" t="n">
-        <v>252.0987650477381</v>
+        <v>323.7716912337954</v>
       </c>
       <c r="Q20" t="n">
-        <v>252.0987650477381</v>
+        <v>323.7716912337954</v>
       </c>
       <c r="R20" t="n">
-        <v>252.0987650477381</v>
+        <v>323.7716912337954</v>
       </c>
       <c r="S20" t="n">
-        <v>252.0987650477381</v>
+        <v>323.7716912337954</v>
       </c>
       <c r="T20" t="n">
-        <v>252.0987650477381</v>
+        <v>323.7716912337954</v>
       </c>
       <c r="U20" t="n">
-        <v>323.7716912337956</v>
+        <v>323.7716912337954</v>
       </c>
       <c r="V20" t="n">
-        <v>338.1792688578643</v>
+        <v>338.179268857864</v>
       </c>
       <c r="W20" t="n">
-        <v>335.6908127917689</v>
+        <v>335.6908127917687</v>
       </c>
       <c r="X20" t="n">
-        <v>311.0950330196743</v>
+        <v>311.0950330196741</v>
       </c>
       <c r="Y20" t="n">
-        <v>263.7690985771314</v>
+        <v>263.7690985771312</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>315.3432667900373</v>
+        <v>161.2831388047953</v>
       </c>
       <c r="C21" t="n">
-        <v>315.3432667900373</v>
+        <v>92.16239064429467</v>
       </c>
       <c r="D21" t="n">
-        <v>315.3432667900373</v>
+        <v>92.16239064429467</v>
       </c>
       <c r="E21" t="n">
-        <v>229.9444615228999</v>
+        <v>92.16239064429467</v>
       </c>
       <c r="F21" t="n">
-        <v>144.5456562557625</v>
+        <v>92.16239064429467</v>
       </c>
       <c r="G21" t="n">
-        <v>144.5456562557625</v>
+        <v>92.16239064429467</v>
       </c>
       <c r="H21" t="n">
-        <v>144.5456562557625</v>
+        <v>92.16239064429467</v>
       </c>
       <c r="I21" t="n">
-        <v>59.14685098862501</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="J21" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="K21" t="n">
         <v>45.76878079825745</v>
       </c>
       <c r="L21" t="n">
-        <v>129.4681498405789</v>
+        <v>45.76878079825745</v>
       </c>
       <c r="M21" t="n">
-        <v>129.4681498405789</v>
+        <v>87.08116173090001</v>
       </c>
       <c r="N21" t="n">
-        <v>170.7805307732215</v>
+        <v>170.7805307732214</v>
       </c>
       <c r="O21" t="n">
-        <v>254.4798998155429</v>
+        <v>254.4798998155427</v>
       </c>
       <c r="P21" t="n">
-        <v>338.1792688578643</v>
+        <v>338.179268857864</v>
       </c>
       <c r="Q21" t="n">
-        <v>332.0807493390703</v>
+        <v>332.0807493390701</v>
       </c>
       <c r="R21" t="n">
-        <v>332.0807493390703</v>
+        <v>332.0807493390701</v>
       </c>
       <c r="S21" t="n">
-        <v>332.0807493390703</v>
+        <v>246.6819440719327</v>
       </c>
       <c r="T21" t="n">
-        <v>332.0807493390703</v>
+        <v>246.6819440719327</v>
       </c>
       <c r="U21" t="n">
-        <v>332.0807493390703</v>
+        <v>246.6819440719327</v>
       </c>
       <c r="V21" t="n">
-        <v>332.0807493390703</v>
+        <v>246.6819440719327</v>
       </c>
       <c r="W21" t="n">
-        <v>332.0807493390703</v>
+        <v>161.2831388047953</v>
       </c>
       <c r="X21" t="n">
-        <v>332.0807493390703</v>
+        <v>161.2831388047953</v>
       </c>
       <c r="Y21" t="n">
-        <v>315.3432667900373</v>
+        <v>161.2831388047953</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="C22" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="D22" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="E22" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="F22" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="G22" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="H22" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="I22" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="J22" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="K22" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="L22" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="M22" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="N22" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="O22" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="P22" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="Q22" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="R22" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="S22" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="T22" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="U22" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="V22" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="W22" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="X22" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="Y22" t="n">
-        <v>6.763585377157285</v>
+        <v>6.76358537715728</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>224.7243025594534</v>
+        <v>224.7243025594536</v>
       </c>
       <c r="C23" t="n">
-        <v>209.8024792656692</v>
+        <v>209.8024792656694</v>
       </c>
       <c r="D23" t="n">
-        <v>207.4395829809272</v>
+        <v>207.4395829809271</v>
       </c>
       <c r="E23" t="n">
         <v>171.0294620301153</v>
@@ -5981,58 +5981,58 @@
         <v>18.34314156973347</v>
       </c>
       <c r="H23" t="n">
-        <v>6.763585377157282</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="I23" t="n">
-        <v>6.763585377157282</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="J23" t="n">
-        <v>6.763585377157282</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="K23" t="n">
-        <v>6.763585377157282</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="L23" t="n">
-        <v>55.38741258664101</v>
+        <v>90.46295441947863</v>
       </c>
       <c r="M23" t="n">
-        <v>138.3667488501958</v>
+        <v>173.4422906830334</v>
       </c>
       <c r="N23" t="n">
-        <v>215.8463415097256</v>
+        <v>250.9218833425632</v>
       </c>
       <c r="O23" t="n">
-        <v>252.0987650477381</v>
+        <v>287.1743068805757</v>
       </c>
       <c r="P23" t="n">
-        <v>252.0987650477381</v>
+        <v>287.1743068805757</v>
       </c>
       <c r="Q23" t="n">
-        <v>252.0987650477381</v>
+        <v>287.1743068805757</v>
       </c>
       <c r="R23" t="n">
-        <v>252.0987650477381</v>
+        <v>287.1743068805757</v>
       </c>
       <c r="S23" t="n">
-        <v>323.7716912337954</v>
+        <v>287.1743068805757</v>
       </c>
       <c r="T23" t="n">
-        <v>323.7716912337954</v>
+        <v>287.1743068805757</v>
       </c>
       <c r="U23" t="n">
-        <v>323.7716912337954</v>
+        <v>338.179268857864</v>
       </c>
       <c r="V23" t="n">
-        <v>338.1792688578641</v>
+        <v>338.179268857864</v>
       </c>
       <c r="W23" t="n">
-        <v>335.6908127917686</v>
+        <v>335.6908127917687</v>
       </c>
       <c r="X23" t="n">
-        <v>311.095033019674</v>
+        <v>311.0950330196741</v>
       </c>
       <c r="Y23" t="n">
-        <v>263.769098577131</v>
+        <v>263.7690985771312</v>
       </c>
     </row>
     <row r="24">
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>332.0807493390702</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="C24" t="n">
-        <v>315.3432667900372</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="D24" t="n">
-        <v>229.9444615228998</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="E24" t="n">
-        <v>144.5456562557624</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="F24" t="n">
-        <v>59.14685098862501</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="G24" t="n">
-        <v>59.14685098862501</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="H24" t="n">
-        <v>59.14685098862501</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="I24" t="n">
-        <v>59.14685098862501</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="J24" t="n">
-        <v>6.763585377157282</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="K24" t="n">
-        <v>45.76878079825745</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="L24" t="n">
-        <v>129.4681498405788</v>
+        <v>87.08116173090001</v>
       </c>
       <c r="M24" t="n">
         <v>170.7805307732214</v>
@@ -6081,37 +6081,37 @@
         <v>254.4798998155427</v>
       </c>
       <c r="O24" t="n">
-        <v>254.4798998155427</v>
+        <v>338.179268857864</v>
       </c>
       <c r="P24" t="n">
-        <v>338.1792688578641</v>
+        <v>338.179268857864</v>
       </c>
       <c r="Q24" t="n">
-        <v>332.0807493390702</v>
+        <v>332.0807493390701</v>
       </c>
       <c r="R24" t="n">
-        <v>332.0807493390702</v>
+        <v>332.0807493390701</v>
       </c>
       <c r="S24" t="n">
-        <v>332.0807493390702</v>
+        <v>332.0807493390701</v>
       </c>
       <c r="T24" t="n">
-        <v>332.0807493390702</v>
+        <v>332.0807493390701</v>
       </c>
       <c r="U24" t="n">
-        <v>332.0807493390702</v>
+        <v>246.6819440719327</v>
       </c>
       <c r="V24" t="n">
-        <v>332.0807493390702</v>
+        <v>161.2831388047953</v>
       </c>
       <c r="W24" t="n">
-        <v>332.0807493390702</v>
+        <v>161.2831388047953</v>
       </c>
       <c r="X24" t="n">
-        <v>332.0807493390702</v>
+        <v>75.88433353765794</v>
       </c>
       <c r="Y24" t="n">
-        <v>332.0807493390702</v>
+        <v>75.88433353765794</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.763585377157282</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="C25" t="n">
-        <v>6.763585377157282</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="D25" t="n">
-        <v>6.763585377157282</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="E25" t="n">
-        <v>6.763585377157282</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="F25" t="n">
-        <v>6.763585377157282</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="G25" t="n">
-        <v>6.763585377157282</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="H25" t="n">
-        <v>6.763585377157282</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="I25" t="n">
-        <v>6.763585377157282</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="J25" t="n">
-        <v>6.763585377157282</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="K25" t="n">
-        <v>6.763585377157282</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="L25" t="n">
-        <v>6.763585377157282</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="M25" t="n">
-        <v>6.763585377157282</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="N25" t="n">
-        <v>6.763585377157282</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="O25" t="n">
-        <v>6.763585377157282</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="P25" t="n">
-        <v>6.763585377157282</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.763585377157282</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="R25" t="n">
-        <v>6.763585377157282</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="S25" t="n">
-        <v>6.763585377157282</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="T25" t="n">
-        <v>6.763585377157282</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="U25" t="n">
-        <v>6.763585377157282</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="V25" t="n">
-        <v>6.763585377157282</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="W25" t="n">
-        <v>6.763585377157282</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="X25" t="n">
-        <v>6.763585377157282</v>
+        <v>6.76358537715728</v>
       </c>
       <c r="Y25" t="n">
-        <v>6.763585377157282</v>
+        <v>6.76358537715728</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1025.021363618494</v>
+        <v>1025.021363618495</v>
       </c>
       <c r="C26" t="n">
-        <v>886.2687840112825</v>
+        <v>886.2687840112835</v>
       </c>
       <c r="D26" t="n">
-        <v>760.0751314131129</v>
+        <v>760.0751314131141</v>
       </c>
       <c r="E26" t="n">
-        <v>599.8342541488737</v>
+        <v>599.8342541488751</v>
       </c>
       <c r="F26" t="n">
-        <v>407.5526318559705</v>
+        <v>407.552631855972</v>
       </c>
       <c r="G26" t="n">
-        <v>199.4864210616372</v>
+        <v>199.4864210616388</v>
       </c>
       <c r="H26" t="n">
-        <v>64.07610855563382</v>
+        <v>64.07610855563374</v>
       </c>
       <c r="I26" t="n">
         <v>36.09658434460358</v>
       </c>
       <c r="J26" t="n">
-        <v>171.8183046963237</v>
+        <v>171.8183046963238</v>
       </c>
       <c r="K26" t="n">
-        <v>377.4043607994713</v>
+        <v>377.4043607994715</v>
       </c>
       <c r="L26" t="n">
-        <v>636.7402271432941</v>
+        <v>636.7402271432943</v>
       </c>
       <c r="M26" t="n">
-        <v>930.4316025411879</v>
+        <v>930.4316025411873</v>
       </c>
       <c r="N26" t="n">
-        <v>1218.623234335057</v>
+        <v>1218.623234335056</v>
       </c>
       <c r="O26" t="n">
         <v>1465.587697007408</v>
@@ -6263,13 +6263,13 @@
         <v>1633.799355170614</v>
       </c>
       <c r="W26" t="n">
-        <v>1507.480142791091</v>
+        <v>1507.480142791092</v>
       </c>
       <c r="X26" t="n">
-        <v>1359.053606705569</v>
+        <v>1359.05360670557</v>
       </c>
       <c r="Y26" t="n">
-        <v>1187.896915949599</v>
+        <v>1187.8969159496</v>
       </c>
     </row>
     <row r="27">
@@ -6279,7 +6279,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>36.09658434460358</v>
+        <v>68.8822315633721</v>
       </c>
       <c r="C27" t="n">
         <v>36.09658434460358</v>
@@ -6324,31 +6324,31 @@
         <v>801.8233632992858</v>
       </c>
       <c r="Q27" t="n">
-        <v>795.7248437804918</v>
+        <v>801.8233632992858</v>
       </c>
       <c r="R27" t="n">
-        <v>795.7248437804918</v>
+        <v>801.8233632992858</v>
       </c>
       <c r="S27" t="n">
-        <v>795.7248437804918</v>
+        <v>801.8233632992858</v>
       </c>
       <c r="T27" t="n">
-        <v>793.5993781897714</v>
+        <v>799.6978977085655</v>
       </c>
       <c r="U27" t="n">
-        <v>563.7428650777665</v>
+        <v>560.0740181830261</v>
       </c>
       <c r="V27" t="n">
-        <v>320.6631469814006</v>
+        <v>316.9943000866601</v>
       </c>
       <c r="W27" t="n">
-        <v>51.26457771169191</v>
+        <v>262.5860778573954</v>
       </c>
       <c r="X27" t="n">
-        <v>46.7469303688321</v>
+        <v>258.0684305145356</v>
       </c>
       <c r="Y27" t="n">
-        <v>36.09658434460358</v>
+        <v>247.4180844903072</v>
       </c>
     </row>
     <row r="28">
@@ -6358,73 +6358,73 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>64.06929642049236</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="C28" t="n">
-        <v>64.06929642049236</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="D28" t="n">
-        <v>131.0505118066278</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="E28" t="n">
-        <v>131.0505118066278</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="F28" t="n">
-        <v>131.0505118066278</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="G28" t="n">
-        <v>131.0505118066278</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0505118066278</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="I28" t="n">
-        <v>178.7207821611379</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="J28" t="n">
-        <v>270.7780407246697</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="K28" t="n">
-        <v>270.7780407246697</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="L28" t="n">
-        <v>270.7780407246697</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="M28" t="n">
-        <v>270.7780407246697</v>
+        <v>222.6918445216361</v>
       </c>
       <c r="N28" t="n">
-        <v>270.7780407246697</v>
+        <v>270.7780407246692</v>
       </c>
       <c r="O28" t="n">
-        <v>270.7780407246697</v>
+        <v>270.7780407246692</v>
       </c>
       <c r="P28" t="n">
-        <v>270.7780407246697</v>
+        <v>270.7780407246692</v>
       </c>
       <c r="Q28" t="n">
-        <v>270.7780407246697</v>
+        <v>270.7780407246692</v>
       </c>
       <c r="R28" t="n">
-        <v>270.7780407246697</v>
+        <v>270.7780407246692</v>
       </c>
       <c r="S28" t="n">
-        <v>248.0483630772724</v>
+        <v>248.0483630772719</v>
       </c>
       <c r="T28" t="n">
-        <v>237.0405152401893</v>
+        <v>237.0405152401889</v>
       </c>
       <c r="U28" t="n">
-        <v>160.4588835527234</v>
+        <v>160.4588835527231</v>
       </c>
       <c r="V28" t="n">
-        <v>127.8643667704906</v>
+        <v>127.8643667704903</v>
       </c>
       <c r="W28" t="n">
-        <v>49.6115753368583</v>
+        <v>49.61157533685813</v>
       </c>
       <c r="X28" t="n">
-        <v>40.44085630837028</v>
+        <v>40.44085630837019</v>
       </c>
       <c r="Y28" t="n">
         <v>36.09658434460358</v>
@@ -6440,19 +6440,19 @@
         <v>1025.021363618494</v>
       </c>
       <c r="C29" t="n">
-        <v>886.2687840112823</v>
+        <v>886.2687840112827</v>
       </c>
       <c r="D29" t="n">
-        <v>760.0751314131127</v>
+        <v>760.0751314131131</v>
       </c>
       <c r="E29" t="n">
-        <v>599.8342541488735</v>
+        <v>599.8342541488739</v>
       </c>
       <c r="F29" t="n">
-        <v>407.5526318559703</v>
+        <v>407.5526318559707</v>
       </c>
       <c r="G29" t="n">
-        <v>199.486421061637</v>
+        <v>199.4864210616374</v>
       </c>
       <c r="H29" t="n">
         <v>64.07610855563382</v>
@@ -6461,16 +6461,16 @@
         <v>36.09658434460358</v>
       </c>
       <c r="J29" t="n">
-        <v>171.8183046963237</v>
+        <v>171.8183046963238</v>
       </c>
       <c r="K29" t="n">
         <v>377.4043607994713</v>
       </c>
       <c r="L29" t="n">
-        <v>636.7402271432941</v>
+        <v>636.7402271432939</v>
       </c>
       <c r="M29" t="n">
-        <v>930.4316025411879</v>
+        <v>930.4316025411877</v>
       </c>
       <c r="N29" t="n">
         <v>1218.623234335057</v>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>36.09658434460358</v>
+        <v>196.5243006273595</v>
       </c>
       <c r="C30" t="n">
-        <v>36.09658434460358</v>
+        <v>196.5243006273595</v>
       </c>
       <c r="D30" t="n">
-        <v>36.09658434460358</v>
+        <v>196.5243006273595</v>
       </c>
       <c r="E30" t="n">
-        <v>36.09658434460358</v>
+        <v>196.5243006273595</v>
       </c>
       <c r="F30" t="n">
         <v>36.09658434460358</v>
@@ -6567,25 +6567,25 @@
         <v>801.8233632992858</v>
       </c>
       <c r="S30" t="n">
-        <v>801.8233632992858</v>
+        <v>750.9295794363385</v>
       </c>
       <c r="T30" t="n">
-        <v>799.6978977085654</v>
+        <v>748.8041138456181</v>
       </c>
       <c r="U30" t="n">
-        <v>775.0643652234697</v>
+        <v>724.1705813605224</v>
       </c>
       <c r="V30" t="n">
-        <v>746.9749941675476</v>
+        <v>481.0908632641566</v>
       </c>
       <c r="W30" t="n">
-        <v>481.2452717925796</v>
+        <v>211.6922939944479</v>
       </c>
       <c r="X30" t="n">
-        <v>261.7372774092759</v>
+        <v>207.174646651588</v>
       </c>
       <c r="Y30" t="n">
-        <v>36.09658434460358</v>
+        <v>196.5243006273595</v>
       </c>
     </row>
     <row r="31">
@@ -6625,43 +6625,43 @@
         <v>36.09658434460358</v>
       </c>
       <c r="L31" t="n">
-        <v>215.7825269532047</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="M31" t="n">
-        <v>270.7780407246697</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="N31" t="n">
-        <v>270.7780407246697</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="O31" t="n">
-        <v>270.7780407246697</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="P31" t="n">
-        <v>270.7780407246697</v>
+        <v>185.5578703684212</v>
       </c>
       <c r="Q31" t="n">
-        <v>270.7780407246697</v>
+        <v>270.7780407246699</v>
       </c>
       <c r="R31" t="n">
-        <v>270.7780407246697</v>
+        <v>270.7780407246699</v>
       </c>
       <c r="S31" t="n">
-        <v>248.0483630772724</v>
+        <v>248.0483630772726</v>
       </c>
       <c r="T31" t="n">
-        <v>237.0405152401893</v>
+        <v>237.0405152401895</v>
       </c>
       <c r="U31" t="n">
-        <v>160.4588835527234</v>
+        <v>160.4588835527235</v>
       </c>
       <c r="V31" t="n">
         <v>127.8643667704906</v>
       </c>
       <c r="W31" t="n">
-        <v>49.6115753368583</v>
+        <v>49.61157533685836</v>
       </c>
       <c r="X31" t="n">
-        <v>40.44085630837028</v>
+        <v>40.44085630837031</v>
       </c>
       <c r="Y31" t="n">
         <v>36.09658434460358</v>
@@ -6677,37 +6677,37 @@
         <v>1025.021363618494</v>
       </c>
       <c r="C32" t="n">
-        <v>886.2687840112826</v>
+        <v>886.2687840112824</v>
       </c>
       <c r="D32" t="n">
-        <v>760.075131413113</v>
+        <v>760.0751314131128</v>
       </c>
       <c r="E32" t="n">
-        <v>599.8342541488738</v>
+        <v>599.8342541488737</v>
       </c>
       <c r="F32" t="n">
-        <v>407.5526318559707</v>
+        <v>407.5526318559706</v>
       </c>
       <c r="G32" t="n">
-        <v>199.4864210616375</v>
+        <v>199.4864210616373</v>
       </c>
       <c r="H32" t="n">
-        <v>64.07610855563394</v>
+        <v>64.07610855563377</v>
       </c>
       <c r="I32" t="n">
         <v>36.09658434460358</v>
       </c>
       <c r="J32" t="n">
-        <v>171.8183046963234</v>
+        <v>171.8183046963238</v>
       </c>
       <c r="K32" t="n">
-        <v>377.4043607994713</v>
+        <v>377.4043607994714</v>
       </c>
       <c r="L32" t="n">
-        <v>636.7402271432941</v>
+        <v>636.7402271432942</v>
       </c>
       <c r="M32" t="n">
-        <v>930.4316025411879</v>
+        <v>930.4316025411878</v>
       </c>
       <c r="N32" t="n">
         <v>1218.623234335057</v>
@@ -6798,28 +6798,28 @@
         <v>801.8233632992858</v>
       </c>
       <c r="Q33" t="n">
-        <v>801.8233632992858</v>
+        <v>795.7248437804918</v>
       </c>
       <c r="R33" t="n">
-        <v>801.8233632992858</v>
+        <v>783.9056371084556</v>
       </c>
       <c r="S33" t="n">
-        <v>801.8233632992858</v>
+        <v>590.5018631535823</v>
       </c>
       <c r="T33" t="n">
-        <v>799.6978977085654</v>
+        <v>588.3763975628621</v>
       </c>
       <c r="U33" t="n">
-        <v>563.7428650777665</v>
+        <v>348.7525180373225</v>
       </c>
       <c r="V33" t="n">
         <v>320.6631469814005</v>
       </c>
       <c r="W33" t="n">
-        <v>51.26457771169186</v>
+        <v>266.2549247521357</v>
       </c>
       <c r="X33" t="n">
-        <v>46.74693036883207</v>
+        <v>261.7372774092759</v>
       </c>
       <c r="Y33" t="n">
         <v>36.09658434460358</v>
@@ -6835,70 +6835,70 @@
         <v>36.09658434460358</v>
       </c>
       <c r="C34" t="n">
-        <v>60.16974026622104</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="D34" t="n">
-        <v>127.1509556523565</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="E34" t="n">
-        <v>197.6036149865927</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="F34" t="n">
-        <v>270.7780407246696</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="G34" t="n">
-        <v>270.7780407246696</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="H34" t="n">
-        <v>270.7780407246696</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="I34" t="n">
-        <v>270.7780407246696</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="J34" t="n">
-        <v>270.7780407246696</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="K34" t="n">
-        <v>270.7780407246696</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="L34" t="n">
-        <v>270.7780407246696</v>
+        <v>86.84593471554169</v>
       </c>
       <c r="M34" t="n">
-        <v>270.7780407246696</v>
+        <v>86.84593471554169</v>
       </c>
       <c r="N34" t="n">
-        <v>270.7780407246696</v>
+        <v>86.84593471554169</v>
       </c>
       <c r="O34" t="n">
-        <v>270.7780407246696</v>
+        <v>261.2184455169714</v>
       </c>
       <c r="P34" t="n">
-        <v>270.7780407246696</v>
+        <v>261.2184455169714</v>
       </c>
       <c r="Q34" t="n">
-        <v>270.7780407246696</v>
+        <v>261.2184455169714</v>
       </c>
       <c r="R34" t="n">
-        <v>270.7780407246696</v>
+        <v>270.7780407246693</v>
       </c>
       <c r="S34" t="n">
-        <v>248.0483630772723</v>
+        <v>248.0483630772721</v>
       </c>
       <c r="T34" t="n">
-        <v>237.0405152401892</v>
+        <v>237.0405152401891</v>
       </c>
       <c r="U34" t="n">
-        <v>160.4588835527233</v>
+        <v>160.4588835527232</v>
       </c>
       <c r="V34" t="n">
-        <v>127.8643667704905</v>
+        <v>127.8643667704904</v>
       </c>
       <c r="W34" t="n">
-        <v>49.61157533685824</v>
+        <v>49.61157533685819</v>
       </c>
       <c r="X34" t="n">
-        <v>40.44085630837025</v>
+        <v>40.44085630837022</v>
       </c>
       <c r="Y34" t="n">
         <v>36.09658434460358</v>
@@ -6911,49 +6911,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>852.8410737358902</v>
+        <v>852.8410737358899</v>
       </c>
       <c r="C35" t="n">
-        <v>737.719451915171</v>
+        <v>737.7194519151705</v>
       </c>
       <c r="D35" t="n">
-        <v>635.1567571034938</v>
+        <v>635.1567571034932</v>
       </c>
       <c r="E35" t="n">
-        <v>498.546837625747</v>
+        <v>498.5468376257464</v>
       </c>
       <c r="F35" t="n">
-        <v>329.8961731193363</v>
+        <v>329.8961731193356</v>
       </c>
       <c r="G35" t="n">
-        <v>145.4609201114954</v>
+        <v>145.4609201114947</v>
       </c>
       <c r="H35" t="n">
-        <v>33.68156539198417</v>
+        <v>33.68156539198419</v>
       </c>
       <c r="I35" t="n">
-        <v>29.33299896744629</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="J35" t="n">
         <v>188.2154210457076</v>
       </c>
       <c r="K35" t="n">
-        <v>416.9621788753964</v>
+        <v>416.9621788753963</v>
       </c>
       <c r="L35" t="n">
-        <v>465.5860060848801</v>
+        <v>699.4587469457601</v>
       </c>
       <c r="M35" t="n">
-        <v>782.4380832093151</v>
+        <v>782.438083209315</v>
       </c>
       <c r="N35" t="n">
         <v>1093.790416729725</v>
       </c>
       <c r="O35" t="n">
-        <v>1130.042840267737</v>
+        <v>1363.915581128618</v>
       </c>
       <c r="P35" t="n">
-        <v>1256.002081456952</v>
+        <v>1402.362428097128</v>
       </c>
       <c r="Q35" t="n">
         <v>1402.362428097128</v>
@@ -6962,16 +6962,16 @@
         <v>1444.059933853638</v>
       </c>
       <c r="S35" t="n">
-        <v>1452.965642266196</v>
+        <v>1452.965642266195</v>
       </c>
       <c r="T35" t="n">
-        <v>1466.649948372315</v>
+        <v>1466.649948372314</v>
       </c>
       <c r="U35" t="n">
-        <v>1452.594922859703</v>
+        <v>1452.594922859702</v>
       </c>
       <c r="V35" t="n">
-        <v>1367.095234142041</v>
+        <v>1367.09523414204</v>
       </c>
       <c r="W35" t="n">
         <v>1264.40697954901</v>
@@ -6980,7 +6980,7 @@
         <v>1139.611401249981</v>
       </c>
       <c r="Y35" t="n">
-        <v>992.085668280503</v>
+        <v>992.0856682805027</v>
       </c>
     </row>
     <row r="36">
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>523.9284195762303</v>
+        <v>122.6612458606132</v>
       </c>
       <c r="C36" t="n">
-        <v>523.9284195762303</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="D36" t="n">
-        <v>523.9284195762303</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="E36" t="n">
-        <v>350.3652156976448</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="F36" t="n">
-        <v>189.9374994148889</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="G36" t="n">
-        <v>189.9374994148889</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="H36" t="n">
-        <v>189.9374994148889</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="I36" t="n">
-        <v>81.71626457891402</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="J36" t="n">
-        <v>29.33299896744629</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="K36" t="n">
-        <v>68.33819438854647</v>
+        <v>68.33819438854646</v>
       </c>
       <c r="L36" t="n">
         <v>187.0720355069091</v>
@@ -7035,31 +7035,31 @@
         <v>795.0597779221285</v>
       </c>
       <c r="Q36" t="n">
-        <v>788.9612584033346</v>
+        <v>795.0597779221285</v>
       </c>
       <c r="R36" t="n">
-        <v>788.9612584033346</v>
+        <v>795.0597779221285</v>
       </c>
       <c r="S36" t="n">
-        <v>595.5574844484613</v>
+        <v>601.6560039672553</v>
       </c>
       <c r="T36" t="n">
-        <v>595.5574844484613</v>
+        <v>384.5401913360911</v>
       </c>
       <c r="U36" t="n">
-        <v>594.554909749858</v>
+        <v>383.5376166374878</v>
       </c>
       <c r="V36" t="n">
-        <v>590.0964964804283</v>
+        <v>379.079203368058</v>
       </c>
       <c r="W36" t="n">
-        <v>559.3192320376559</v>
+        <v>348.3019389252855</v>
       </c>
       <c r="X36" t="n">
-        <v>523.9284195762303</v>
+        <v>348.3019389252855</v>
       </c>
       <c r="Y36" t="n">
-        <v>523.9284195762303</v>
+        <v>122.6612458606132</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.33299896744629</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="C37" t="n">
-        <v>33.02913096129951</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="D37" t="n">
-        <v>33.02913096129951</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="E37" t="n">
-        <v>33.02913096129951</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="F37" t="n">
-        <v>33.02913096129951</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="G37" t="n">
-        <v>99.89351385131815</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="H37" t="n">
-        <v>99.89351385131815</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="I37" t="n">
-        <v>99.89351385131815</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="J37" t="n">
-        <v>99.89351385131815</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="K37" t="n">
-        <v>99.89351385131815</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="L37" t="n">
-        <v>99.89351385131815</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="M37" t="n">
-        <v>99.89351385131815</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="N37" t="n">
-        <v>99.89351385131815</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="O37" t="n">
-        <v>99.89351385131815</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="P37" t="n">
-        <v>99.89351385131815</v>
+        <v>144.9857208469733</v>
       </c>
       <c r="Q37" t="n">
-        <v>99.89351385131815</v>
+        <v>144.9857208469733</v>
       </c>
       <c r="R37" t="n">
-        <v>132.6138107855571</v>
+        <v>144.9857208469733</v>
       </c>
       <c r="S37" t="n">
-        <v>133.4971554498842</v>
+        <v>145.8690655113003</v>
       </c>
       <c r="T37" t="n">
-        <v>145.8690655113002</v>
+        <v>145.8690655113003</v>
       </c>
       <c r="U37" t="n">
-        <v>92.91839161032668</v>
+        <v>92.91839161032672</v>
       </c>
       <c r="V37" t="n">
-        <v>83.95483261458619</v>
+        <v>83.95483261458621</v>
       </c>
       <c r="W37" t="n">
-        <v>29.33299896744629</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="X37" t="n">
-        <v>29.33299896744629</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="Y37" t="n">
-        <v>29.33299896744629</v>
+        <v>29.33299896744628</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>852.8410737358912</v>
+        <v>852.8410737358899</v>
       </c>
       <c r="C38" t="n">
-        <v>737.7194519151722</v>
+        <v>737.7194519151708</v>
       </c>
       <c r="D38" t="n">
-        <v>635.1567571034948</v>
+        <v>635.1567571034934</v>
       </c>
       <c r="E38" t="n">
-        <v>498.5468376257478</v>
+        <v>498.5468376257464</v>
       </c>
       <c r="F38" t="n">
-        <v>329.896173119337</v>
+        <v>329.8961731193356</v>
       </c>
       <c r="G38" t="n">
-        <v>145.4609201114953</v>
+        <v>145.4609201114947</v>
       </c>
       <c r="H38" t="n">
-        <v>33.68156539198414</v>
+        <v>33.68156539198419</v>
       </c>
       <c r="I38" t="n">
-        <v>29.33299896744629</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="J38" t="n">
         <v>188.2154210457076</v>
       </c>
       <c r="K38" t="n">
-        <v>188.2154210457076</v>
+        <v>416.9621788753963</v>
       </c>
       <c r="L38" t="n">
-        <v>370.8794742683863</v>
+        <v>465.5860060848801</v>
       </c>
       <c r="M38" t="n">
-        <v>687.7315513928213</v>
+        <v>548.5653423484349</v>
       </c>
       <c r="N38" t="n">
-        <v>999.0838849132313</v>
+        <v>806.9086498088611</v>
       </c>
       <c r="O38" t="n">
-        <v>1035.336308451244</v>
+        <v>1077.033814207754</v>
       </c>
       <c r="P38" t="n">
-        <v>1256.002081456951</v>
+        <v>1297.699587213461</v>
       </c>
       <c r="Q38" t="n">
-        <v>1402.362428097128</v>
+        <v>1444.059933853638</v>
       </c>
       <c r="R38" t="n">
         <v>1444.059933853638</v>
       </c>
       <c r="S38" t="n">
-        <v>1452.965642266196</v>
+        <v>1452.965642266195</v>
       </c>
       <c r="T38" t="n">
-        <v>1466.649948372315</v>
+        <v>1466.649948372314</v>
       </c>
       <c r="U38" t="n">
-        <v>1452.594922859703</v>
+        <v>1452.594922859702</v>
       </c>
       <c r="V38" t="n">
-        <v>1367.095234142042</v>
+        <v>1367.09523414204</v>
       </c>
       <c r="W38" t="n">
-        <v>1264.406979549011</v>
+        <v>1264.40697954901</v>
       </c>
       <c r="X38" t="n">
-        <v>1139.611401249982</v>
+        <v>1139.611401249981</v>
       </c>
       <c r="Y38" t="n">
-        <v>992.0856682805038</v>
+        <v>992.0856682805027</v>
       </c>
     </row>
     <row r="39">
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>129.0384656176182</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="C39" t="n">
-        <v>29.33299896744629</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="D39" t="n">
-        <v>29.33299896744629</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="E39" t="n">
-        <v>29.33299896744629</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="F39" t="n">
-        <v>29.33299896744629</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="G39" t="n">
-        <v>29.33299896744629</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="H39" t="n">
-        <v>29.33299896744629</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="I39" t="n">
-        <v>29.33299896744629</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="J39" t="n">
-        <v>29.33299896744629</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="K39" t="n">
-        <v>68.33819438854647</v>
+        <v>68.33819438854646</v>
       </c>
       <c r="L39" t="n">
         <v>187.0720355069091</v>
@@ -7275,28 +7275,28 @@
         <v>788.9612584033346</v>
       </c>
       <c r="R39" t="n">
-        <v>788.9612584033346</v>
+        <v>717.1043245433649</v>
       </c>
       <c r="S39" t="n">
-        <v>788.9612584033346</v>
+        <v>523.7005505884916</v>
       </c>
       <c r="T39" t="n">
-        <v>788.9612584033346</v>
+        <v>523.7005505884916</v>
       </c>
       <c r="U39" t="n">
-        <v>787.9586837047314</v>
+        <v>284.0766710629522</v>
       </c>
       <c r="V39" t="n">
-        <v>783.5002704353017</v>
+        <v>279.6182577935224</v>
       </c>
       <c r="W39" t="n">
-        <v>752.7230059925292</v>
+        <v>248.8409933507499</v>
       </c>
       <c r="X39" t="n">
-        <v>533.2150116092256</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="Y39" t="n">
-        <v>307.5743185445533</v>
+        <v>29.33299896744628</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.33299896744629</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="C40" t="n">
-        <v>29.33299896744629</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="D40" t="n">
-        <v>29.33299896744629</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="E40" t="n">
-        <v>29.33299896744629</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="F40" t="n">
-        <v>29.33299896744629</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="G40" t="n">
-        <v>29.33299896744629</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="H40" t="n">
-        <v>29.33299896744629</v>
+        <v>99.08767891807003</v>
       </c>
       <c r="I40" t="n">
-        <v>29.33299896744629</v>
+        <v>144.9857208469733</v>
       </c>
       <c r="J40" t="n">
-        <v>29.33299896744629</v>
+        <v>144.9857208469733</v>
       </c>
       <c r="K40" t="n">
-        <v>29.33299896744629</v>
+        <v>144.9857208469733</v>
       </c>
       <c r="L40" t="n">
-        <v>29.33299896744629</v>
+        <v>144.9857208469733</v>
       </c>
       <c r="M40" t="n">
-        <v>29.33299896744629</v>
+        <v>144.9857208469733</v>
       </c>
       <c r="N40" t="n">
-        <v>29.33299896744629</v>
+        <v>144.9857208469733</v>
       </c>
       <c r="O40" t="n">
-        <v>29.33299896744629</v>
+        <v>144.9857208469733</v>
       </c>
       <c r="P40" t="n">
-        <v>29.33299896744629</v>
+        <v>144.9857208469733</v>
       </c>
       <c r="Q40" t="n">
-        <v>137.7138710502363</v>
+        <v>144.9857208469733</v>
       </c>
       <c r="R40" t="n">
-        <v>145.8690655113002</v>
+        <v>144.9857208469733</v>
       </c>
       <c r="S40" t="n">
-        <v>145.8690655113002</v>
+        <v>145.8690655113003</v>
       </c>
       <c r="T40" t="n">
-        <v>145.8690655113002</v>
+        <v>145.8690655113003</v>
       </c>
       <c r="U40" t="n">
-        <v>92.91839161032662</v>
+        <v>92.91839161032672</v>
       </c>
       <c r="V40" t="n">
-        <v>83.95483261458617</v>
+        <v>83.95483261458621</v>
       </c>
       <c r="W40" t="n">
-        <v>29.33299896744629</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="X40" t="n">
-        <v>29.33299896744629</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.33299896744629</v>
+        <v>29.33299896744628</v>
       </c>
     </row>
     <row r="41">
@@ -7385,61 +7385,61 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>852.8410737358899</v>
+        <v>852.8410737358895</v>
       </c>
       <c r="C41" t="n">
-        <v>737.7194519151707</v>
+        <v>737.71945191517</v>
       </c>
       <c r="D41" t="n">
-        <v>635.1567571034934</v>
+        <v>635.1567571034926</v>
       </c>
       <c r="E41" t="n">
-        <v>498.5468376257467</v>
+        <v>498.5468376257458</v>
       </c>
       <c r="F41" t="n">
-        <v>329.8961731193359</v>
+        <v>329.8961731193349</v>
       </c>
       <c r="G41" t="n">
-        <v>145.4609201114949</v>
+        <v>145.4609201114939</v>
       </c>
       <c r="H41" t="n">
-        <v>33.6815653919842</v>
+        <v>33.68156539198427</v>
       </c>
       <c r="I41" t="n">
-        <v>29.33299896744629</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="J41" t="n">
-        <v>188.2154210457076</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="K41" t="n">
-        <v>416.9621788753963</v>
+        <v>258.0797567971349</v>
       </c>
       <c r="L41" t="n">
-        <v>465.5860060848801</v>
+        <v>540.5763248674987</v>
       </c>
       <c r="M41" t="n">
-        <v>548.5653423484349</v>
+        <v>857.4284019919335</v>
       </c>
       <c r="N41" t="n">
-        <v>765.2111440523515</v>
+        <v>1168.780735512343</v>
       </c>
       <c r="O41" t="n">
-        <v>1035.336308451244</v>
+        <v>1205.033159050356</v>
       </c>
       <c r="P41" t="n">
-        <v>1256.002081456952</v>
+        <v>1264.907789869509</v>
       </c>
       <c r="Q41" t="n">
-        <v>1402.362428097128</v>
+        <v>1411.268136509686</v>
       </c>
       <c r="R41" t="n">
-        <v>1444.059933853638</v>
+        <v>1452.965642266195</v>
       </c>
       <c r="S41" t="n">
-        <v>1452.965642266196</v>
+        <v>1452.965642266195</v>
       </c>
       <c r="T41" t="n">
-        <v>1466.649948372315</v>
+        <v>1466.649948372314</v>
       </c>
       <c r="U41" t="n">
         <v>1452.594922859702</v>
@@ -7451,10 +7451,10 @@
         <v>1264.40697954901</v>
       </c>
       <c r="X41" t="n">
-        <v>1139.611401249981</v>
+        <v>1139.61140124998</v>
       </c>
       <c r="Y41" t="n">
-        <v>992.0856682805027</v>
+        <v>992.0856682805022</v>
       </c>
     </row>
     <row r="42">
@@ -7464,34 +7464,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>29.33299896744629</v>
+        <v>109.6806340983492</v>
       </c>
       <c r="C42" t="n">
-        <v>29.33299896744629</v>
+        <v>109.6806340983492</v>
       </c>
       <c r="D42" t="n">
-        <v>29.33299896744629</v>
+        <v>109.6806340983492</v>
       </c>
       <c r="E42" t="n">
-        <v>29.33299896744629</v>
+        <v>109.6806340983492</v>
       </c>
       <c r="F42" t="n">
-        <v>29.33299896744629</v>
+        <v>109.6806340983492</v>
       </c>
       <c r="G42" t="n">
-        <v>29.33299896744629</v>
+        <v>109.6806340983492</v>
       </c>
       <c r="H42" t="n">
-        <v>29.33299896744629</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="I42" t="n">
-        <v>29.33299896744629</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="J42" t="n">
-        <v>29.33299896744629</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="K42" t="n">
-        <v>68.33819438854647</v>
+        <v>68.33819438854646</v>
       </c>
       <c r="L42" t="n">
         <v>187.0720355069091</v>
@@ -7509,31 +7509,31 @@
         <v>795.0597779221285</v>
       </c>
       <c r="Q42" t="n">
-        <v>788.9612584033346</v>
+        <v>795.0597779221285</v>
       </c>
       <c r="R42" t="n">
-        <v>788.9612584033346</v>
+        <v>795.0597779221285</v>
       </c>
       <c r="S42" t="n">
-        <v>788.9612584033346</v>
+        <v>601.6560039672553</v>
       </c>
       <c r="T42" t="n">
-        <v>788.9612584033346</v>
+        <v>384.5401913360911</v>
       </c>
       <c r="U42" t="n">
-        <v>748.3386689545607</v>
+        <v>383.5376166374877</v>
       </c>
       <c r="V42" t="n">
-        <v>505.2589508581948</v>
+        <v>379.0792033680578</v>
       </c>
       <c r="W42" t="n">
-        <v>474.4816864154222</v>
+        <v>109.6806340983492</v>
       </c>
       <c r="X42" t="n">
-        <v>254.9736920321186</v>
+        <v>109.6806340983492</v>
       </c>
       <c r="Y42" t="n">
-        <v>29.33299896744629</v>
+        <v>109.6806340983492</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>29.33299896744629</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="C43" t="n">
-        <v>29.33299896744629</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="D43" t="n">
-        <v>29.33299896744629</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="E43" t="n">
-        <v>122.9463600282237</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="F43" t="n">
-        <v>145.8690655113003</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="G43" t="n">
-        <v>145.8690655113003</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="H43" t="n">
-        <v>145.8690655113003</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="I43" t="n">
-        <v>145.8690655113003</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="J43" t="n">
-        <v>145.8690655113003</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="K43" t="n">
-        <v>145.8690655113003</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="L43" t="n">
-        <v>145.8690655113003</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="M43" t="n">
-        <v>145.8690655113003</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="N43" t="n">
-        <v>145.8690655113003</v>
+        <v>132.6138107855577</v>
       </c>
       <c r="O43" t="n">
-        <v>145.8690655113003</v>
+        <v>132.6138107855577</v>
       </c>
       <c r="P43" t="n">
-        <v>145.8690655113003</v>
+        <v>132.6138107855577</v>
       </c>
       <c r="Q43" t="n">
-        <v>145.8690655113003</v>
+        <v>132.6138107855577</v>
       </c>
       <c r="R43" t="n">
-        <v>145.8690655113003</v>
+        <v>132.6138107855577</v>
       </c>
       <c r="S43" t="n">
-        <v>145.8690655113003</v>
+        <v>133.4971554498846</v>
       </c>
       <c r="T43" t="n">
-        <v>145.8690655113003</v>
+        <v>145.8690655113006</v>
       </c>
       <c r="U43" t="n">
-        <v>92.91839161032674</v>
+        <v>92.91839161032689</v>
       </c>
       <c r="V43" t="n">
-        <v>83.95483261458622</v>
+        <v>83.95483261458629</v>
       </c>
       <c r="W43" t="n">
-        <v>29.33299896744629</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="X43" t="n">
-        <v>29.33299896744629</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="Y43" t="n">
-        <v>29.33299896744629</v>
+        <v>29.33299896744628</v>
       </c>
     </row>
     <row r="44">
@@ -7622,61 +7622,61 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>852.8410737358906</v>
+        <v>852.8410737358902</v>
       </c>
       <c r="C44" t="n">
-        <v>737.7194519151715</v>
+        <v>737.719451915171</v>
       </c>
       <c r="D44" t="n">
-        <v>635.1567571034941</v>
+        <v>635.1567571034936</v>
       </c>
       <c r="E44" t="n">
-        <v>498.5468376257469</v>
+        <v>498.5468376257465</v>
       </c>
       <c r="F44" t="n">
-        <v>329.8961731193361</v>
+        <v>329.8961731193357</v>
       </c>
       <c r="G44" t="n">
-        <v>145.4609201114952</v>
+        <v>145.4609201114947</v>
       </c>
       <c r="H44" t="n">
-        <v>33.6815653919842</v>
+        <v>33.68156539198419</v>
       </c>
       <c r="I44" t="n">
-        <v>29.33299896744629</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="J44" t="n">
-        <v>188.2154210457076</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="K44" t="n">
-        <v>416.9621788753963</v>
+        <v>258.079756797135</v>
       </c>
       <c r="L44" t="n">
-        <v>465.5860060848801</v>
+        <v>540.5763248674989</v>
       </c>
       <c r="M44" t="n">
-        <v>782.438083209315</v>
+        <v>857.4284019919338</v>
       </c>
       <c r="N44" t="n">
-        <v>859.9176758688448</v>
+        <v>1168.780735512344</v>
       </c>
       <c r="O44" t="n">
-        <v>1035.336308451244</v>
+        <v>1438.905899911236</v>
       </c>
       <c r="P44" t="n">
-        <v>1256.002081456952</v>
+        <v>1438.905899911236</v>
       </c>
       <c r="Q44" t="n">
-        <v>1402.362428097128</v>
+        <v>1438.905899911236</v>
       </c>
       <c r="R44" t="n">
-        <v>1444.059933853638</v>
+        <v>1452.965642266195</v>
       </c>
       <c r="S44" t="n">
-        <v>1452.965642266196</v>
+        <v>1452.965642266195</v>
       </c>
       <c r="T44" t="n">
-        <v>1466.649948372315</v>
+        <v>1466.649948372314</v>
       </c>
       <c r="U44" t="n">
         <v>1452.594922859703</v>
@@ -7685,13 +7685,13 @@
         <v>1367.095234142041</v>
       </c>
       <c r="W44" t="n">
-        <v>1264.406979549011</v>
+        <v>1264.40697954901</v>
       </c>
       <c r="X44" t="n">
         <v>1139.611401249981</v>
       </c>
       <c r="Y44" t="n">
-        <v>992.0856682805033</v>
+        <v>992.0856682805029</v>
       </c>
     </row>
     <row r="45">
@@ -7701,34 +7701,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>574.1871530655937</v>
+        <v>345.909757173146</v>
       </c>
       <c r="C45" t="n">
-        <v>384.7748787985574</v>
+        <v>156.4974829061097</v>
       </c>
       <c r="D45" t="n">
-        <v>223.9947625595892</v>
+        <v>156.4974829061097</v>
       </c>
       <c r="E45" t="n">
-        <v>50.43155868100365</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="F45" t="n">
-        <v>29.33299896744629</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="G45" t="n">
-        <v>29.33299896744629</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="H45" t="n">
-        <v>29.33299896744629</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="I45" t="n">
-        <v>29.33299896744629</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="J45" t="n">
-        <v>29.33299896744629</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="K45" t="n">
-        <v>68.33819438854647</v>
+        <v>68.33819438854646</v>
       </c>
       <c r="L45" t="n">
         <v>187.0720355069091</v>
@@ -7746,31 +7746,31 @@
         <v>795.0597779221285</v>
       </c>
       <c r="Q45" t="n">
-        <v>788.9612584033346</v>
+        <v>795.0597779221285</v>
       </c>
       <c r="R45" t="n">
-        <v>788.9612584033346</v>
+        <v>795.0597779221285</v>
       </c>
       <c r="S45" t="n">
-        <v>788.9612584033346</v>
+        <v>601.6560039672553</v>
       </c>
       <c r="T45" t="n">
-        <v>788.9612584033346</v>
+        <v>601.6560039672553</v>
       </c>
       <c r="U45" t="n">
-        <v>787.9586837047312</v>
+        <v>600.653429268652</v>
       </c>
       <c r="V45" t="n">
-        <v>783.5002704353014</v>
+        <v>596.1950159992222</v>
       </c>
       <c r="W45" t="n">
-        <v>752.7230059925289</v>
+        <v>565.4177515564496</v>
       </c>
       <c r="X45" t="n">
-        <v>752.7230059925289</v>
+        <v>345.909757173146</v>
       </c>
       <c r="Y45" t="n">
-        <v>752.7230059925289</v>
+        <v>345.909757173146</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>29.33299896744629</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="C46" t="n">
-        <v>29.33299896744629</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="D46" t="n">
-        <v>29.33299896744629</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="E46" t="n">
-        <v>29.33299896744629</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="F46" t="n">
-        <v>29.33299896744629</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="G46" t="n">
-        <v>29.33299896744629</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="H46" t="n">
-        <v>29.33299896744629</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="I46" t="n">
-        <v>100.1639710484976</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="J46" t="n">
-        <v>100.1639710484976</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="K46" t="n">
-        <v>100.1639710484976</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="L46" t="n">
-        <v>100.1639710484976</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="M46" t="n">
-        <v>100.1639710484976</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="N46" t="n">
-        <v>100.1639710484976</v>
+        <v>145.8690655113003</v>
       </c>
       <c r="O46" t="n">
-        <v>100.1639710484976</v>
+        <v>145.8690655113003</v>
       </c>
       <c r="P46" t="n">
-        <v>100.1639710484976</v>
+        <v>145.8690655113003</v>
       </c>
       <c r="Q46" t="n">
-        <v>100.1639710484976</v>
+        <v>145.8690655113003</v>
       </c>
       <c r="R46" t="n">
-        <v>132.8842679827366</v>
+        <v>145.8690655113003</v>
       </c>
       <c r="S46" t="n">
-        <v>133.7676126470636</v>
+        <v>145.8690655113003</v>
       </c>
       <c r="T46" t="n">
         <v>145.8690655113003</v>
       </c>
       <c r="U46" t="n">
-        <v>92.91839161032674</v>
+        <v>92.91839161032672</v>
       </c>
       <c r="V46" t="n">
-        <v>83.95483261458622</v>
+        <v>83.95483261458621</v>
       </c>
       <c r="W46" t="n">
-        <v>29.33299896744629</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="X46" t="n">
-        <v>29.33299896744629</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="Y46" t="n">
-        <v>29.33299896744629</v>
+        <v>29.33299896744628</v>
       </c>
     </row>
   </sheetData>
@@ -8769,22 +8769,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>131.9742862901104</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L12" t="n">
-        <v>201.5002359135912</v>
+        <v>204.9161881242767</v>
       </c>
       <c r="M12" t="n">
         <v>201.1586111617382</v>
       </c>
       <c r="N12" t="n">
-        <v>186.4889234163774</v>
+        <v>143.6737839116513</v>
       </c>
       <c r="O12" t="n">
-        <v>205.1857278322749</v>
+        <v>120.6409106178089</v>
       </c>
       <c r="P12" t="n">
-        <v>120.6495533449843</v>
+        <v>205.1943705594503</v>
       </c>
       <c r="Q12" t="n">
         <v>136.1300824528302</v>
@@ -9009,19 +9009,19 @@
         <v>131.9742862901104</v>
       </c>
       <c r="L15" t="n">
-        <v>204.9161881242767</v>
+        <v>120.3713709098107</v>
       </c>
       <c r="M15" t="n">
-        <v>116.6137939472721</v>
+        <v>197.7426589510527</v>
       </c>
       <c r="N15" t="n">
-        <v>183.072971205692</v>
+        <v>186.4889234163774</v>
       </c>
       <c r="O15" t="n">
         <v>205.1857278322749</v>
       </c>
       <c r="P15" t="n">
-        <v>205.1943705594504</v>
+        <v>205.1943705594503</v>
       </c>
       <c r="Q15" t="n">
         <v>136.1300824528302</v>
@@ -9246,19 +9246,19 @@
         <v>171.373473584151</v>
       </c>
       <c r="L18" t="n">
-        <v>162.1010486195507</v>
+        <v>162.1010486195506</v>
       </c>
       <c r="M18" t="n">
-        <v>201.1586111617382</v>
+        <v>116.6137939472721</v>
       </c>
       <c r="N18" t="n">
-        <v>101.9441062019114</v>
+        <v>186.4889234163774</v>
       </c>
       <c r="O18" t="n">
         <v>205.1857278322749</v>
       </c>
       <c r="P18" t="n">
-        <v>205.1943705594504</v>
+        <v>205.1943705594503</v>
       </c>
       <c r="Q18" t="n">
         <v>136.1300824528302</v>
@@ -9483,19 +9483,19 @@
         <v>171.373473584151</v>
       </c>
       <c r="L21" t="n">
-        <v>204.9161881242767</v>
+        <v>120.3713709098107</v>
       </c>
       <c r="M21" t="n">
-        <v>116.6137939472721</v>
+        <v>158.3434716570121</v>
       </c>
       <c r="N21" t="n">
-        <v>143.6737839116514</v>
+        <v>186.4889234163774</v>
       </c>
       <c r="O21" t="n">
         <v>205.1857278322749</v>
       </c>
       <c r="P21" t="n">
-        <v>205.1943705594504</v>
+        <v>205.1943705594503</v>
       </c>
       <c r="Q21" t="n">
         <v>136.1300824528302</v>
@@ -9717,22 +9717,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>171.373473584151</v>
+        <v>131.9742862901104</v>
       </c>
       <c r="L24" t="n">
-        <v>204.9161881242767</v>
+        <v>201.5002359135912</v>
       </c>
       <c r="M24" t="n">
-        <v>158.3434716570121</v>
+        <v>201.1586111617382</v>
       </c>
       <c r="N24" t="n">
         <v>186.4889234163774</v>
       </c>
       <c r="O24" t="n">
-        <v>120.6409106178089</v>
+        <v>205.1857278322749</v>
       </c>
       <c r="P24" t="n">
-        <v>205.1943705594503</v>
+        <v>120.6495533449843</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1300824528302</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>85.43098143720269</v>
+        <v>169.9757986516688</v>
       </c>
       <c r="C11" t="n">
-        <v>146.0940556550142</v>
+        <v>61.54923844054827</v>
       </c>
       <c r="D11" t="n">
-        <v>133.6607179160627</v>
+        <v>52.50666013338297</v>
       </c>
       <c r="E11" t="n">
         <v>167.3674703354716</v>
       </c>
       <c r="F11" t="n">
-        <v>114.5429906993828</v>
+        <v>199.0878079138489</v>
       </c>
       <c r="G11" t="n">
-        <v>130.1697333157987</v>
+        <v>214.7145505302648</v>
       </c>
       <c r="H11" t="n">
-        <v>142.7852112248184</v>
+        <v>58.24039401035239</v>
       </c>
       <c r="I11" t="n">
-        <v>36.42873081279475</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>23.12798498931299</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>46.03812530998766</v>
       </c>
       <c r="V11" t="n">
-        <v>116.7683418829874</v>
+        <v>116.7683418829875</v>
       </c>
       <c r="W11" t="n">
         <v>133.7850220996023</v>
@@ -23324,7 +23324,7 @@
         <v>155.6712725685416</v>
       </c>
       <c r="Y11" t="n">
-        <v>168.0462946319514</v>
+        <v>178.1741256922853</v>
       </c>
     </row>
     <row r="12">
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1.654448148704688</v>
+        <v>1.654448148704773</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>85.43098143720269</v>
+        <v>169.9757986516687</v>
       </c>
       <c r="C14" t="n">
         <v>146.0940556550142</v>
       </c>
       <c r="D14" t="n">
-        <v>49.11590070159664</v>
+        <v>133.6607179160626</v>
       </c>
       <c r="E14" t="n">
-        <v>167.3674703354716</v>
+        <v>167.3674703354715</v>
       </c>
       <c r="F14" t="n">
-        <v>199.0878079138489</v>
+        <v>114.5429906993828</v>
       </c>
       <c r="G14" t="n">
-        <v>214.7145505302647</v>
+        <v>176.6762063405577</v>
       </c>
       <c r="H14" t="n">
-        <v>109.7472398438097</v>
+        <v>58.24039401035228</v>
       </c>
       <c r="I14" t="n">
-        <v>36.42873081279476</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>23.12798498931291</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>18.30111863217994</v>
       </c>
       <c r="U14" t="n">
-        <v>46.03812530998763</v>
+        <v>46.03812530998755</v>
       </c>
       <c r="V14" t="n">
         <v>116.7683418829874</v>
       </c>
       <c r="W14" t="n">
-        <v>133.7850220996023</v>
+        <v>133.7850220996022</v>
       </c>
       <c r="X14" t="n">
-        <v>71.12645535407549</v>
+        <v>155.6712725685415</v>
       </c>
       <c r="Y14" t="n">
-        <v>178.1741256922853</v>
+        <v>93.62930847781922</v>
       </c>
     </row>
     <row r="15">
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>1.654448148704688</v>
+        <v>1.65444814870466</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1361122.516767275</v>
+        <v>1361122.516767276</v>
       </c>
     </row>
     <row r="7">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>88193.19951764596</v>
+        <v>88193.19951764593</v>
       </c>
       <c r="C2" t="n">
-        <v>88193.19951764596</v>
+        <v>88193.19951764599</v>
       </c>
       <c r="D2" t="n">
-        <v>88193.19951764596</v>
+        <v>88193.19951764595</v>
       </c>
       <c r="E2" t="n">
-        <v>75999.00890204794</v>
+        <v>75999.00890204792</v>
       </c>
       <c r="F2" t="n">
         <v>75999.00890204792</v>
@@ -26329,31 +26329,31 @@
         <v>88371.85488585358</v>
       </c>
       <c r="H2" t="n">
-        <v>88371.85488585364</v>
+        <v>88371.85488585361</v>
       </c>
       <c r="I2" t="n">
-        <v>88371.85488585364</v>
+        <v>88371.85488585362</v>
       </c>
       <c r="J2" t="n">
         <v>88371.85488585359</v>
       </c>
       <c r="K2" t="n">
-        <v>88371.85488585361</v>
+        <v>88371.85488585364</v>
       </c>
       <c r="L2" t="n">
-        <v>88371.85488585361</v>
+        <v>88371.85488585362</v>
       </c>
       <c r="M2" t="n">
-        <v>88371.85488585354</v>
+        <v>88371.85488585355</v>
       </c>
       <c r="N2" t="n">
-        <v>88371.85488585358</v>
+        <v>88371.85488585352</v>
       </c>
       <c r="O2" t="n">
+        <v>88371.85488585355</v>
+      </c>
+      <c r="P2" t="n">
         <v>88371.85488585357</v>
-      </c>
-      <c r="P2" t="n">
-        <v>88371.85488585349</v>
       </c>
     </row>
     <row r="3">
@@ -26375,10 +26375,10 @@
         <v>272248.040755637</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>105057.1604753343</v>
+        <v>105057.1604753342</v>
       </c>
       <c r="H3" t="n">
         <v>4.547473508864641e-11</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>161150.2341536786</v>
+        <v>161150.2341536787</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,16 +26396,16 @@
         <v>105057.1604753343</v>
       </c>
       <c r="M3" t="n">
-        <v>18715.71856690198</v>
+        <v>18715.71856690193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>65215.19438069713</v>
+        <v>65215.19438069715</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26442,10 +26442,10 @@
         <v>453902.5702029474</v>
       </c>
       <c r="K4" t="n">
+        <v>453902.5702029473</v>
+      </c>
+      <c r="L4" t="n">
         <v>453902.5702029474</v>
-      </c>
-      <c r="L4" t="n">
-        <v>453902.5702029473</v>
       </c>
       <c r="M4" t="n">
         <v>453523.1062128385</v>
@@ -26454,7 +26454,7 @@
         <v>453523.1062128386</v>
       </c>
       <c r="O4" t="n">
-        <v>453523.1062128385</v>
+        <v>453523.1062128384</v>
       </c>
       <c r="P4" t="n">
         <v>453523.1062128386</v>
@@ -26476,7 +26476,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>24571.35877862008</v>
+        <v>24571.35877862007</v>
       </c>
       <c r="F5" t="n">
         <v>24571.35877862008</v>
@@ -26494,7 +26494,7 @@
         <v>47598.27644989197</v>
       </c>
       <c r="K5" t="n">
-        <v>47598.27644989197</v>
+        <v>47598.27644989196</v>
       </c>
       <c r="L5" t="n">
         <v>47598.27644989197</v>
@@ -26503,10 +26503,10 @@
         <v>44424.71624350353</v>
       </c>
       <c r="N5" t="n">
-        <v>44424.71624350354</v>
+        <v>44424.71624350353</v>
       </c>
       <c r="O5" t="n">
-        <v>44424.71624350353</v>
+        <v>44424.71624350351</v>
       </c>
       <c r="P5" t="n">
         <v>44424.71624350353</v>
@@ -26519,34 +26519,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-433842.0702398694</v>
+        <v>-433846.5366240746</v>
       </c>
       <c r="C6" t="n">
-        <v>-433842.0702398694</v>
+        <v>-433846.5366240746</v>
       </c>
       <c r="D6" t="n">
-        <v>-433842.0702398694</v>
+        <v>-433846.5366240746</v>
       </c>
       <c r="E6" t="n">
-        <v>-603712.7185987442</v>
+        <v>-604022.0397483394</v>
       </c>
       <c r="F6" t="n">
-        <v>-331464.6778431073</v>
+        <v>-331773.9989927026</v>
       </c>
       <c r="G6" t="n">
-        <v>-505717.3144790789</v>
+        <v>-505717.3144790787</v>
       </c>
       <c r="H6" t="n">
         <v>-400660.1540037446</v>
       </c>
       <c r="I6" t="n">
-        <v>-400660.1540037446</v>
+        <v>-400660.1540037445</v>
       </c>
       <c r="J6" t="n">
         <v>-574279.2259206644</v>
       </c>
       <c r="K6" t="n">
-        <v>-413128.9917669857</v>
+        <v>-413128.9917669856</v>
       </c>
       <c r="L6" t="n">
         <v>-518186.15224232</v>
@@ -26555,7 +26555,7 @@
         <v>-428291.6861373904</v>
       </c>
       <c r="N6" t="n">
-        <v>-409575.9675704885</v>
+        <v>-409575.9675704886</v>
       </c>
       <c r="O6" t="n">
         <v>-474791.1619511856</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="F2" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="G2" t="n">
         <v>335.4328923203324</v>
@@ -26707,7 +26707,7 @@
         <v>335.4328923203325</v>
       </c>
       <c r="J2" t="n">
-        <v>212.8404435700394</v>
+        <v>212.8404435700395</v>
       </c>
       <c r="K2" t="n">
         <v>212.8404435700394</v>
@@ -26719,10 +26719,10 @@
         <v>236.2350917786668</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="P2" t="n">
         <v>236.2350917786668</v>
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>84.54481721446606</v>
+        <v>84.54481721446601</v>
       </c>
       <c r="F4" t="n">
-        <v>84.54481721446606</v>
+        <v>84.54481721446601</v>
       </c>
       <c r="G4" t="n">
-        <v>84.54481721446606</v>
+        <v>84.54481721446601</v>
       </c>
       <c r="H4" t="n">
-        <v>84.54481721446606</v>
+        <v>84.54481721446601</v>
       </c>
       <c r="I4" t="n">
-        <v>84.54481721446602</v>
+        <v>84.54481721446601</v>
       </c>
       <c r="J4" t="n">
         <v>451.2073043075447</v>
@@ -26820,16 +26820,16 @@
         <v>451.2073043075447</v>
       </c>
       <c r="M4" t="n">
-        <v>366.6624870930787</v>
+        <v>366.6624870930785</v>
       </c>
       <c r="N4" t="n">
-        <v>366.6624870930787</v>
+        <v>366.6624870930785</v>
       </c>
       <c r="O4" t="n">
-        <v>366.6624870930787</v>
+        <v>366.6624870930785</v>
       </c>
       <c r="P4" t="n">
-        <v>366.6624870930787</v>
+        <v>366.6624870930785</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="G2" t="n">
-        <v>131.3214505941679</v>
+        <v>131.3214505941678</v>
       </c>
       <c r="H2" t="n">
         <v>5.684341886080801e-14</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>81.51899297587147</v>
+        <v>81.51899297587153</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,16 +26938,16 @@
         <v>131.3214505941679</v>
       </c>
       <c r="M2" t="n">
-        <v>23.39464820862747</v>
+        <v>23.39464820862742</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>81.51899297587141</v>
+        <v>81.51899297587144</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>84.54481721446606</v>
+        <v>84.54481721446601</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="L2" t="n">
-        <v>131.3214505941679</v>
+        <v>131.3214505941678</v>
       </c>
       <c r="M2" t="n">
         <v>5.684341886080801e-14</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>81.51899297587147</v>
+        <v>81.51899297587153</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>84.54481721446606</v>
+        <v>84.54481721446601</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="C11" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="D11" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="E11" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="F11" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="G11" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="H11" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="I11" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="J11" t="n">
         <v>75.74779675012002</v>
@@ -28126,37 +28126,37 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>47.92620758011002</v>
       </c>
       <c r="P11" t="n">
         <v>13.34037157088127</v>
       </c>
       <c r="Q11" t="n">
-        <v>165.3513190164617</v>
+        <v>127.4201540671926</v>
       </c>
       <c r="R11" t="n">
-        <v>204.1114417261646</v>
+        <v>194.1163990953234</v>
       </c>
       <c r="S11" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="T11" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="U11" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="V11" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="W11" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="X11" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="Y11" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261645</v>
       </c>
     </row>
     <row r="12">
@@ -28169,7 +28169,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>177.4127593159504</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
@@ -28181,7 +28181,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>64.19327000777186</v>
+        <v>148.7380872222379</v>
       </c>
       <c r="H12" t="n">
         <v>125.6725816482287</v>
@@ -28190,7 +28190,7 @@
         <v>107.1390224876151</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>51.85943295535305</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28211,7 +28211,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>6.037534323606003</v>
       </c>
       <c r="R12" t="n">
         <v>134.3151594521598</v>
@@ -28220,22 +28220,22 @@
         <v>191.4697362153245</v>
       </c>
       <c r="T12" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="U12" t="n">
-        <v>204.1114417261646</v>
+        <v>152.6828235158181</v>
       </c>
       <c r="V12" t="n">
-        <v>204.1114417261646</v>
+        <v>156.1041037009362</v>
       </c>
       <c r="W12" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="X12" t="n">
-        <v>204.1114417261646</v>
+        <v>151.0002212598991</v>
       </c>
       <c r="Y12" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261645</v>
       </c>
     </row>
     <row r="13">
@@ -28257,7 +28257,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="G13" t="n">
         <v>168.6953110816783</v>
@@ -28266,25 +28266,25 @@
         <v>165.7758191012691</v>
       </c>
       <c r="I13" t="n">
-        <v>204.1114417261646</v>
+        <v>164.6886553331604</v>
       </c>
       <c r="J13" t="n">
-        <v>119.8533137078861</v>
+        <v>183.2867073385094</v>
       </c>
       <c r="K13" t="n">
-        <v>66.39518063773792</v>
+        <v>150.9399978522039</v>
       </c>
       <c r="L13" t="n">
-        <v>31.33949144013922</v>
+        <v>115.8843086546052</v>
       </c>
       <c r="M13" t="n">
-        <v>108.9051999996242</v>
+        <v>24.3603827851581</v>
       </c>
       <c r="N13" t="n">
-        <v>100.2288572122339</v>
+        <v>15.68403999776785</v>
       </c>
       <c r="O13" t="n">
-        <v>60.71720151328496</v>
+        <v>36.70659427566596</v>
       </c>
       <c r="P13" t="n">
         <v>57.81777162581083</v>
@@ -28296,25 +28296,25 @@
         <v>203.184286794587</v>
       </c>
       <c r="S13" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="T13" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="U13" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="V13" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="W13" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="X13" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="Y13" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261645</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="C14" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="D14" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="E14" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="F14" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="G14" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="H14" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="I14" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="J14" t="n">
         <v>75.74779675012002</v>
@@ -28357,7 +28357,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>0.7273058371379335</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -28366,34 +28366,34 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>90.29533278865242</v>
+        <v>97.88518878534728</v>
       </c>
       <c r="Q14" t="n">
         <v>88.39635779869052</v>
       </c>
       <c r="R14" t="n">
-        <v>204.1114417261646</v>
+        <v>195.7942798923316</v>
       </c>
       <c r="S14" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="T14" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="U14" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="V14" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="W14" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="X14" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="Y14" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
     </row>
     <row r="15">
@@ -28415,7 +28415,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
-        <v>148.7180469115128</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
         <v>148.7380872222379</v>
@@ -28424,10 +28424,10 @@
         <v>125.6725816482287</v>
       </c>
       <c r="I15" t="n">
-        <v>22.59420527314906</v>
+        <v>107.1390224876151</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>51.85943295535305</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28448,31 +28448,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>6.037534323606003</v>
       </c>
       <c r="R15" t="n">
         <v>134.3151594521598</v>
       </c>
       <c r="S15" t="n">
-        <v>191.4697362153245</v>
+        <v>110.2659040146437</v>
       </c>
       <c r="T15" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="U15" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="V15" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="W15" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="X15" t="n">
-        <v>204.1114417261646</v>
+        <v>132.7680972250046</v>
       </c>
       <c r="Y15" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
     </row>
     <row r="16">
@@ -28488,70 +28488,70 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>204.1114417261646</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E16" t="n">
-        <v>204.1114417261646</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F16" t="n">
-        <v>153.3735822679081</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>168.6953110816783</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="H16" t="n">
         <v>165.7758191012691</v>
       </c>
       <c r="I16" t="n">
-        <v>164.6886553331604</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="J16" t="n">
-        <v>119.8533137078861</v>
+        <v>173.6323498087361</v>
       </c>
       <c r="K16" t="n">
         <v>66.39518063773792</v>
       </c>
       <c r="L16" t="n">
-        <v>31.33949144013922</v>
+        <v>115.8843086546052</v>
       </c>
       <c r="M16" t="n">
         <v>24.3603827851581</v>
       </c>
       <c r="N16" t="n">
-        <v>15.68403999776785</v>
+        <v>100.2288572122339</v>
       </c>
       <c r="O16" t="n">
         <v>36.70659427566596</v>
       </c>
       <c r="P16" t="n">
-        <v>142.3625888402769</v>
+        <v>57.81777162581083</v>
       </c>
       <c r="Q16" t="n">
-        <v>204.1114417261646</v>
+        <v>126.7594634122123</v>
       </c>
       <c r="R16" t="n">
         <v>203.184286794587</v>
       </c>
       <c r="S16" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="T16" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="U16" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="V16" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="W16" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="X16" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
       <c r="Y16" t="n">
-        <v>204.1114417261646</v>
+        <v>204.1114417261647</v>
       </c>
     </row>
     <row r="17">
@@ -28588,16 +28588,16 @@
         <v>75.74779675012002</v>
       </c>
       <c r="K17" t="n">
-        <v>5.177760637567083</v>
+        <v>89.72257785203308</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>0.7273058371379335</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1.677880797008171</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -28618,10 +28618,10 @@
         <v>222.4125603583446</v>
       </c>
       <c r="U17" t="n">
-        <v>334.6943842506183</v>
+        <v>250.1495670361522</v>
       </c>
       <c r="V17" t="n">
-        <v>323.2849702432982</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W17" t="n">
         <v>335.4328923203324</v>
@@ -28640,7 +28640,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>160.1803866741231</v>
+        <v>92.20567718319973</v>
       </c>
       <c r="C18" t="n">
         <v>187.5181515243659</v>
@@ -28664,7 +28664,7 @@
         <v>107.1390224876151</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>51.85943295535305</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,19 +28685,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.037534323606003</v>
       </c>
       <c r="R18" t="n">
-        <v>49.77034223769373</v>
+        <v>59.84808444965815</v>
       </c>
       <c r="S18" t="n">
-        <v>191.4697362153245</v>
+        <v>106.9249190008585</v>
       </c>
       <c r="T18" t="n">
-        <v>130.3998372903865</v>
+        <v>214.9446545048526</v>
       </c>
       <c r="U18" t="n">
-        <v>152.682823515818</v>
+        <v>237.2276407302841</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
@@ -28709,7 +28709,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>138.8394689195596</v>
       </c>
     </row>
     <row r="19">
@@ -28828,7 +28828,7 @@
         <v>5.177760637567083</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>24.47068755732164</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -28837,7 +28837,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>47.92620758011002</v>
       </c>
       <c r="P20" t="n">
         <v>13.34037157088127</v>
@@ -28855,7 +28855,7 @@
         <v>222.4125603583446</v>
       </c>
       <c r="U20" t="n">
-        <v>322.5464621735841</v>
+        <v>250.1495670361522</v>
       </c>
       <c r="V20" t="n">
         <v>335.4328923203325</v>
@@ -28880,16 +28880,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>119.0886108454703</v>
       </c>
       <c r="D21" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>87.28275462533361</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>74.27862190546227</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
         <v>148.7380872222379</v>
@@ -28898,10 +28898,10 @@
         <v>125.6725816482287</v>
       </c>
       <c r="I21" t="n">
-        <v>22.59420527314906</v>
+        <v>22.59420527314912</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>51.85943295535305</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28928,7 +28928,7 @@
         <v>134.3151594521598</v>
       </c>
       <c r="S21" t="n">
-        <v>191.4697362153245</v>
+        <v>106.9249190008585</v>
       </c>
       <c r="T21" t="n">
         <v>214.9446545048526</v>
@@ -28940,13 +28940,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>266.7045835770116</v>
+        <v>182.1597663625456</v>
       </c>
       <c r="X21" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
-        <v>206.8141784104829</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="22">
@@ -29065,7 +29065,7 @@
         <v>5.177760637567083</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>35.42984023518952</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -29086,16 +29086,16 @@
         <v>194.1163990953234</v>
       </c>
       <c r="S23" t="n">
-        <v>299.6363218529092</v>
+        <v>227.2394267154776</v>
       </c>
       <c r="T23" t="n">
         <v>222.4125603583446</v>
       </c>
       <c r="U23" t="n">
-        <v>250.1495670361522</v>
+        <v>301.6697306495748</v>
       </c>
       <c r="V23" t="n">
-        <v>335.4328923203325</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W23" t="n">
         <v>335.4328923203325</v>
@@ -29114,19 +29114,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>176.7504943976657</v>
+        <v>108.3209537187701</v>
       </c>
       <c r="C24" t="n">
-        <v>170.9480438008233</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>74.62749786211252</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>87.28275462533365</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>74.27862190546232</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
         <v>148.7380872222379</v>
@@ -29138,7 +29138,7 @@
         <v>107.1390224876151</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>51.85943295535305</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29171,16 +29171,16 @@
         <v>214.9446545048526</v>
       </c>
       <c r="U24" t="n">
-        <v>237.2276407302841</v>
+        <v>152.6828235158181</v>
       </c>
       <c r="V24" t="n">
-        <v>240.6489209154022</v>
+        <v>156.1041037009362</v>
       </c>
       <c r="W24" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>132.7680972250046</v>
       </c>
       <c r="Y24" t="n">
         <v>223.3842861340256</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>212.8404435700394</v>
+        <v>212.8404435700395</v>
       </c>
       <c r="C26" t="n">
-        <v>212.8404435700394</v>
+        <v>212.8404435700395</v>
       </c>
       <c r="D26" t="n">
-        <v>212.8404435700394</v>
+        <v>212.8404435700395</v>
       </c>
       <c r="E26" t="n">
-        <v>212.8404435700394</v>
+        <v>212.8404435700395</v>
       </c>
       <c r="F26" t="n">
-        <v>212.8404435700394</v>
+        <v>212.8404435700395</v>
       </c>
       <c r="G26" t="n">
-        <v>212.8404435700394</v>
+        <v>212.8404435700395</v>
       </c>
       <c r="H26" t="n">
-        <v>212.8404435700394</v>
+        <v>212.8404435700395</v>
       </c>
       <c r="I26" t="n">
-        <v>212.8404435700394</v>
+        <v>212.8404435700395</v>
       </c>
       <c r="J26" t="n">
-        <v>212.8404435700394</v>
+        <v>212.8404435700395</v>
       </c>
       <c r="K26" t="n">
-        <v>212.8404435700394</v>
+        <v>212.8404435700395</v>
       </c>
       <c r="L26" t="n">
-        <v>212.8404435700394</v>
+        <v>212.8404435700395</v>
       </c>
       <c r="M26" t="n">
-        <v>212.8404435700394</v>
+        <v>212.8404435700386</v>
       </c>
       <c r="N26" t="n">
-        <v>212.8404435700394</v>
+        <v>212.8404435700395</v>
       </c>
       <c r="O26" t="n">
-        <v>212.8404435700394</v>
+        <v>212.8404435700395</v>
       </c>
       <c r="P26" t="n">
-        <v>212.8404435700394</v>
+        <v>212.8404435700395</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.8404435700394</v>
+        <v>212.8404435700395</v>
       </c>
       <c r="R26" t="n">
-        <v>212.8404435700394</v>
+        <v>212.8404435700395</v>
       </c>
       <c r="S26" t="n">
-        <v>212.8404435700394</v>
+        <v>212.8404435700395</v>
       </c>
       <c r="T26" t="n">
-        <v>212.8404435700394</v>
+        <v>212.8404435700395</v>
       </c>
       <c r="U26" t="n">
-        <v>212.8404435700394</v>
+        <v>212.8404435700395</v>
       </c>
       <c r="V26" t="n">
-        <v>212.8404435700394</v>
+        <v>212.8404435700395</v>
       </c>
       <c r="W26" t="n">
-        <v>212.8404435700394</v>
+        <v>212.8404435700395</v>
       </c>
       <c r="X26" t="n">
-        <v>212.8404435700394</v>
+        <v>212.8404435700395</v>
       </c>
       <c r="Y26" t="n">
-        <v>212.8404435700394</v>
+        <v>212.8404435700395</v>
       </c>
     </row>
     <row r="27">
@@ -29351,10 +29351,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>155.0603607777851</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
@@ -29396,7 +29396,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.037534323606003</v>
       </c>
       <c r="R27" t="n">
         <v>134.3151594521598</v>
@@ -29405,22 +29405,22 @@
         <v>191.4697362153245</v>
       </c>
       <c r="T27" t="n">
-        <v>212.8404435700394</v>
+        <v>212.8404435700395</v>
       </c>
       <c r="U27" t="n">
-        <v>9.669692749399218</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>212.8404435700395</v>
       </c>
       <c r="X27" t="n">
-        <v>212.8404435700394</v>
+        <v>212.8404435700395</v>
       </c>
       <c r="Y27" t="n">
-        <v>212.8404435700394</v>
+        <v>212.8404435700395</v>
       </c>
     </row>
     <row r="28">
@@ -29430,13 +29430,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>205.8721853880881</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C28" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D28" t="n">
-        <v>212.8404435700394</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E28" t="n">
         <v>141.676141212225</v>
@@ -29451,10 +29451,10 @@
         <v>165.7758191012691</v>
       </c>
       <c r="I28" t="n">
-        <v>212.8404435700394</v>
+        <v>164.6886553331604</v>
       </c>
       <c r="J28" t="n">
-        <v>212.8404435700394</v>
+        <v>119.8533137078861</v>
       </c>
       <c r="K28" t="n">
         <v>66.39518063773792</v>
@@ -29463,10 +29463,10 @@
         <v>31.33949144013922</v>
       </c>
       <c r="M28" t="n">
-        <v>24.3603827851581</v>
+        <v>212.8404435700395</v>
       </c>
       <c r="N28" t="n">
-        <v>15.68403999776785</v>
+        <v>64.25595535436685</v>
       </c>
       <c r="O28" t="n">
         <v>36.70659427566596</v>
@@ -29481,25 +29481,25 @@
         <v>203.184286794587</v>
       </c>
       <c r="S28" t="n">
-        <v>212.8404435700394</v>
+        <v>212.8404435700395</v>
       </c>
       <c r="T28" t="n">
-        <v>212.8404435700394</v>
+        <v>212.8404435700395</v>
       </c>
       <c r="U28" t="n">
-        <v>212.8404435700394</v>
+        <v>212.8404435700395</v>
       </c>
       <c r="V28" t="n">
-        <v>212.8404435700394</v>
+        <v>212.8404435700395</v>
       </c>
       <c r="W28" t="n">
-        <v>212.8404435700394</v>
+        <v>212.8404435700395</v>
       </c>
       <c r="X28" t="n">
-        <v>212.8404435700394</v>
+        <v>212.8404435700395</v>
       </c>
       <c r="Y28" t="n">
-        <v>212.8404435700394</v>
+        <v>212.8404435700395</v>
       </c>
     </row>
     <row r="29">
@@ -29600,7 +29600,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>148.7380872222379</v>
@@ -29639,7 +29639,7 @@
         <v>134.3151594521598</v>
       </c>
       <c r="S30" t="n">
-        <v>191.4697362153245</v>
+        <v>141.0848901910067</v>
       </c>
       <c r="T30" t="n">
         <v>212.8404435700394</v>
@@ -29648,16 +29648,16 @@
         <v>212.8404435700394</v>
       </c>
       <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
         <v>212.8404435700394</v>
       </c>
-      <c r="W30" t="n">
-        <v>3.63215842579325</v>
-      </c>
-      <c r="X30" t="n">
-        <v>0</v>
-      </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>212.8404435700394</v>
       </c>
     </row>
     <row r="31">
@@ -29697,10 +29697,10 @@
         <v>66.39518063773792</v>
       </c>
       <c r="L31" t="n">
-        <v>212.8404435700394</v>
+        <v>31.33949144013922</v>
       </c>
       <c r="M31" t="n">
-        <v>79.9114067967389</v>
+        <v>24.3603827851581</v>
       </c>
       <c r="N31" t="n">
         <v>15.68403999776785</v>
@@ -29709,10 +29709,10 @@
         <v>36.70659427566596</v>
       </c>
       <c r="P31" t="n">
-        <v>57.81777162581083</v>
+        <v>208.788767609465</v>
       </c>
       <c r="Q31" t="n">
-        <v>126.7594634122123</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="R31" t="n">
         <v>203.184286794587</v>
@@ -29779,7 +29779,7 @@
         <v>212.8404435700394</v>
       </c>
       <c r="M32" t="n">
-        <v>212.8404435700394</v>
+        <v>212.8404435700392</v>
       </c>
       <c r="N32" t="n">
         <v>212.8404435700394</v>
@@ -29870,31 +29870,31 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.037534323606003</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>134.3151594521598</v>
+        <v>122.614144846844</v>
       </c>
       <c r="S33" t="n">
-        <v>191.4697362153245</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>212.8404435700394</v>
       </c>
       <c r="U33" t="n">
-        <v>3.632158425793193</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="X33" t="n">
         <v>212.8404435700394</v>
       </c>
       <c r="Y33" t="n">
-        <v>212.8404435700394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -29907,16 +29907,16 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
-        <v>190.7735000847173</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D34" t="n">
-        <v>212.8404435700394</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
-        <v>212.8404435700394</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
-        <v>212.8404435700394</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
         <v>168.6953110816783</v>
@@ -29934,7 +29934,7 @@
         <v>66.39518063773792</v>
       </c>
       <c r="L34" t="n">
-        <v>31.33949144013922</v>
+        <v>82.60146151179387</v>
       </c>
       <c r="M34" t="n">
         <v>24.3603827851581</v>
@@ -29943,7 +29943,7 @@
         <v>15.68403999776785</v>
       </c>
       <c r="O34" t="n">
-        <v>36.70659427566596</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="P34" t="n">
         <v>57.81777162581083</v>
@@ -29952,7 +29952,7 @@
         <v>126.7594634122123</v>
       </c>
       <c r="R34" t="n">
-        <v>203.184286794587</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="S34" t="n">
         <v>212.8404435700394</v>
@@ -30013,22 +30013,22 @@
         <v>236.2350917786668</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="M35" t="n">
-        <v>236.2350917786668</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>236.2350917786668</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="P35" t="n">
-        <v>140.5719283276633</v>
+        <v>52.17557052897246</v>
       </c>
       <c r="Q35" t="n">
-        <v>236.2350917786668</v>
+        <v>88.39635779869052</v>
       </c>
       <c r="R35" t="n">
         <v>236.2350917786668</v>
@@ -30065,16 +30065,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>95.12318710013071</v>
       </c>
       <c r="D36" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
         <v>148.7380872222379</v>
@@ -30083,10 +30083,10 @@
         <v>125.6725816482287</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>107.1390224876151</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>51.85943295535305</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30107,7 +30107,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>6.037534323606003</v>
       </c>
       <c r="R36" t="n">
         <v>134.3151594521598</v>
@@ -30116,7 +30116,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>214.9446545048526</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>236.2350917786668</v>
@@ -30128,10 +30128,10 @@
         <v>236.2350917786668</v>
       </c>
       <c r="X36" t="n">
-        <v>182.2760101026593</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30144,7 +30144,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C37" t="n">
-        <v>170.1906476324301</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D37" t="n">
         <v>145.1826502507107</v>
@@ -30156,7 +30156,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>236.2350917786668</v>
+        <v>168.6953110816783</v>
       </c>
       <c r="H37" t="n">
         <v>165.7758191012691</v>
@@ -30183,19 +30183,19 @@
         <v>36.70659427566596</v>
       </c>
       <c r="P37" t="n">
-        <v>57.81777162581083</v>
+        <v>174.6387028172522</v>
       </c>
       <c r="Q37" t="n">
         <v>126.7594634122123</v>
       </c>
       <c r="R37" t="n">
-        <v>236.2350917786668</v>
+        <v>203.184286794587</v>
       </c>
       <c r="S37" t="n">
         <v>236.2350917786668</v>
       </c>
       <c r="T37" t="n">
-        <v>236.2350917786668</v>
+        <v>223.7382129287516</v>
       </c>
       <c r="U37" t="n">
         <v>236.2350917786668</v>
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="C38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="D38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="E38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="F38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="G38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="H38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="I38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="J38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="K38" t="n">
-        <v>5.177760637567083</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="L38" t="n">
-        <v>135.3941676900959</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>236.2350917786669</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>236.2350917786669</v>
+        <v>182.6906210110065</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="P38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="Q38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="R38" t="n">
-        <v>236.2350917786669</v>
+        <v>194.1163990953234</v>
       </c>
       <c r="S38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="T38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="U38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="V38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="W38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="X38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="Y38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
     </row>
     <row r="39">
@@ -30299,10 +30299,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>88.80973954069577</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
         <v>159.1723150765785</v>
@@ -30347,28 +30347,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>134.3151594521598</v>
+        <v>63.17679493078984</v>
       </c>
       <c r="S39" t="n">
-        <v>191.4697362153245</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>214.9446545048526</v>
       </c>
       <c r="U39" t="n">
-        <v>236.2350917786669</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="W39" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -30396,10 +30396,10 @@
         <v>168.6953110816783</v>
       </c>
       <c r="H40" t="n">
-        <v>165.7758191012691</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="I40" t="n">
-        <v>164.6886553331604</v>
+        <v>211.0503138472041</v>
       </c>
       <c r="J40" t="n">
         <v>119.8533137078861</v>
@@ -30423,25 +30423,25 @@
         <v>57.81777162581083</v>
       </c>
       <c r="Q40" t="n">
-        <v>236.2350917786669</v>
+        <v>126.7594634122123</v>
       </c>
       <c r="R40" t="n">
-        <v>211.4218569572778</v>
+        <v>203.184286794587</v>
       </c>
       <c r="S40" t="n">
-        <v>235.3428244409627</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="T40" t="n">
         <v>223.7382129287516</v>
       </c>
       <c r="U40" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="V40" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="W40" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="X40" t="n">
         <v>221.9194554082425</v>
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="C41" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="D41" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="E41" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="F41" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="G41" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="H41" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="I41" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="J41" t="n">
-        <v>236.2350917786668</v>
+        <v>75.74779675012002</v>
       </c>
       <c r="K41" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="N41" t="n">
-        <v>140.5719283276634</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="O41" t="n">
-        <v>236.2350917786668</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>236.2350917786668</v>
+        <v>73.81979664073327</v>
       </c>
       <c r="Q41" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="R41" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="S41" t="n">
-        <v>236.2350917786668</v>
+        <v>227.2394267154776</v>
       </c>
       <c r="T41" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="U41" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="V41" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="W41" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="X41" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="Y41" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
     </row>
     <row r="42">
@@ -30554,7 +30554,7 @@
         <v>148.7380872222379</v>
       </c>
       <c r="H42" t="n">
-        <v>125.6725816482287</v>
+        <v>46.12842286863484</v>
       </c>
       <c r="I42" t="n">
         <v>107.1390224876151</v>
@@ -30581,31 +30581,31 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>6.037534323606003</v>
       </c>
       <c r="R42" t="n">
         <v>134.3151594521598</v>
       </c>
       <c r="S42" t="n">
-        <v>191.4697362153245</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>214.9446545048526</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>197.0112771759979</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="W42" t="n">
-        <v>236.2350917786668</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -30624,10 +30624,10 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E43" t="n">
-        <v>236.2350917786668</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F43" t="n">
-        <v>162.0811301811503</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
         <v>168.6953110816783</v>
@@ -30651,7 +30651,7 @@
         <v>24.3603827851581</v>
       </c>
       <c r="N43" t="n">
-        <v>15.68403999776785</v>
+        <v>120.0080923392945</v>
       </c>
       <c r="O43" t="n">
         <v>36.70659427566596</v>
@@ -30666,19 +30666,19 @@
         <v>203.184286794587</v>
       </c>
       <c r="S43" t="n">
-        <v>235.3428244409627</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="T43" t="n">
-        <v>223.7382129287516</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="U43" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="V43" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="W43" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="X43" t="n">
         <v>221.9194554082425</v>
@@ -30718,34 +30718,34 @@
         <v>236.2350917786668</v>
       </c>
       <c r="J44" t="n">
-        <v>236.2350917786668</v>
+        <v>75.74779675012002</v>
       </c>
       <c r="K44" t="n">
         <v>236.2350917786668</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="M44" t="n">
         <v>236.2350917786668</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="O44" t="n">
-        <v>140.5719283276636</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="P44" t="n">
-        <v>236.2350917786668</v>
+        <v>13.34037157088127</v>
       </c>
       <c r="Q44" t="n">
-        <v>236.2350917786668</v>
+        <v>88.39635779869052</v>
       </c>
       <c r="R44" t="n">
-        <v>236.2350917786668</v>
+        <v>208.3181590498273</v>
       </c>
       <c r="S44" t="n">
-        <v>236.2350917786668</v>
+        <v>227.2394267154776</v>
       </c>
       <c r="T44" t="n">
         <v>236.2350917786668</v>
@@ -30773,19 +30773,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>45.9347327405229</v>
       </c>
       <c r="F45" t="n">
-        <v>137.9358650035066</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
         <v>148.7380872222379</v>
@@ -30818,13 +30818,13 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.037534323606003</v>
       </c>
       <c r="R45" t="n">
         <v>134.3151594521598</v>
       </c>
       <c r="S45" t="n">
-        <v>191.4697362153245</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>214.9446545048526</v>
@@ -30839,7 +30839,7 @@
         <v>236.2350917786668</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>223.3842861340256</v>
@@ -30873,7 +30873,7 @@
         <v>165.7758191012691</v>
       </c>
       <c r="I46" t="n">
-        <v>236.2350917786668</v>
+        <v>164.6886553331604</v>
       </c>
       <c r="J46" t="n">
         <v>119.8533137078861</v>
@@ -30888,7 +30888,7 @@
         <v>24.3603827851581</v>
       </c>
       <c r="N46" t="n">
-        <v>15.68403999776785</v>
+        <v>133.3972385269133</v>
       </c>
       <c r="O46" t="n">
         <v>36.70659427566596</v>
@@ -30900,13 +30900,13 @@
         <v>126.7594634122123</v>
       </c>
       <c r="R46" t="n">
-        <v>236.2350917786668</v>
+        <v>203.184286794587</v>
       </c>
       <c r="S46" t="n">
-        <v>236.2350917786668</v>
+        <v>235.3428244409627</v>
       </c>
       <c r="T46" t="n">
-        <v>235.9619026906069</v>
+        <v>223.7382129287516</v>
       </c>
       <c r="U46" t="n">
         <v>236.2350917786668</v>
@@ -35422,16 +35422,16 @@
         <v>78.26221480760586</v>
       </c>
       <c r="O11" t="n">
-        <v>36.61860963435599</v>
+        <v>84.54481721446601</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>76.95496121777114</v>
+        <v>39.0237962685021</v>
       </c>
       <c r="R11" t="n">
-        <v>9.995042630841194</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>39.39918729404057</v>
       </c>
       <c r="L12" t="n">
-        <v>81.12886500378059</v>
+        <v>84.54481721446601</v>
       </c>
       <c r="M12" t="n">
-        <v>84.54481721446606</v>
+        <v>84.54481721446601</v>
       </c>
       <c r="N12" t="n">
-        <v>84.54481721446606</v>
+        <v>41.72967770973995</v>
       </c>
       <c r="O12" t="n">
-        <v>84.54481721446606</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>84.54481721446601</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35553,7 +35553,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>65.18455950771792</v>
+        <v>65.18455950771789</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -35562,25 +35562,25 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>39.42278639300418</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>63.43339363062337</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>84.54481721446601</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>84.54481721446601</v>
       </c>
       <c r="M13" t="n">
-        <v>84.54481721446606</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>84.54481721446606</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>24.01060723761901</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -35653,7 +35653,7 @@
         <v>49.11497697927649</v>
       </c>
       <c r="M14" t="n">
-        <v>83.81751137732807</v>
+        <v>84.54481721446601</v>
       </c>
       <c r="N14" t="n">
         <v>78.26221480760586</v>
@@ -35662,13 +35662,13 @@
         <v>36.61860963435599</v>
       </c>
       <c r="P14" t="n">
-        <v>76.95496121777114</v>
+        <v>84.54481721446601</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>9.995042630841194</v>
+        <v>1.677880797008198</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,19 +35729,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>84.54481721446606</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>81.12886500378053</v>
       </c>
       <c r="N15" t="n">
-        <v>81.12886500378059</v>
+        <v>84.54481721446601</v>
       </c>
       <c r="O15" t="n">
-        <v>84.54481721446606</v>
+        <v>84.54481721446601</v>
       </c>
       <c r="P15" t="n">
-        <v>84.54481721446606</v>
+        <v>84.54481721446601</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35784,46 +35784,46 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>58.92879147545386</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>62.43530051393958</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>14.44670004946151</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>35.41613064448634</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>39.42278639300427</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>53.77903610085009</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>84.54481721446601</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>84.54481721446601</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>84.54481721446606</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>77.35197831395226</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,16 +35884,16 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>84.54481721446601</v>
       </c>
       <c r="L17" t="n">
         <v>49.11497697927649</v>
       </c>
       <c r="M17" t="n">
-        <v>83.81751137732807</v>
+        <v>84.54481721446601</v>
       </c>
       <c r="N17" t="n">
-        <v>78.26221480760586</v>
+        <v>79.94009560461403</v>
       </c>
       <c r="O17" t="n">
         <v>36.61860963435599</v>
@@ -35914,10 +35914,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>84.54481721446606</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>2.405186634146244</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -35966,19 +35966,19 @@
         <v>39.39918729404057</v>
       </c>
       <c r="L18" t="n">
-        <v>41.72967770974001</v>
+        <v>41.72967770973995</v>
       </c>
       <c r="M18" t="n">
-        <v>84.54481721446606</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>84.54481721446601</v>
       </c>
       <c r="O18" t="n">
-        <v>84.54481721446606</v>
+        <v>84.54481721446601</v>
       </c>
       <c r="P18" t="n">
-        <v>84.54481721446606</v>
+        <v>84.54481721446601</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36124,7 +36124,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>49.11497697927649</v>
+        <v>73.58566453659813</v>
       </c>
       <c r="M20" t="n">
         <v>83.81751137732807</v>
@@ -36133,7 +36133,7 @@
         <v>78.26221480760586</v>
       </c>
       <c r="O20" t="n">
-        <v>36.61860963435599</v>
+        <v>84.54481721446601</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36151,7 +36151,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>72.39689513743186</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>14.55310871118047</v>
@@ -36203,19 +36203,19 @@
         <v>39.39918729404057</v>
       </c>
       <c r="L21" t="n">
-        <v>84.54481721446606</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>41.72967770973995</v>
       </c>
       <c r="N21" t="n">
-        <v>41.72967770974001</v>
+        <v>84.54481721446601</v>
       </c>
       <c r="O21" t="n">
-        <v>84.54481721446606</v>
+        <v>84.54481721446601</v>
       </c>
       <c r="P21" t="n">
-        <v>84.54481721446606</v>
+        <v>84.54481721446601</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36361,7 +36361,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>49.11497697927649</v>
+        <v>84.54481721446601</v>
       </c>
       <c r="M23" t="n">
         <v>83.81751137732807</v>
@@ -36382,16 +36382,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>72.39689513743168</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>51.52016361342259</v>
       </c>
       <c r="V23" t="n">
-        <v>14.55310871118047</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>39.39918729404057</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>84.54481721446602</v>
+        <v>81.12886500378053</v>
       </c>
       <c r="M24" t="n">
-        <v>41.72967770973995</v>
+        <v>84.54481721446601</v>
       </c>
       <c r="N24" t="n">
-        <v>84.54481721446602</v>
+        <v>84.54481721446601</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>84.54481721446601</v>
       </c>
       <c r="P24" t="n">
-        <v>84.54481721446602</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0926468199194</v>
+        <v>137.0926468199195</v>
       </c>
       <c r="K26" t="n">
-        <v>207.6626829324723</v>
+        <v>207.6626829324724</v>
       </c>
       <c r="L26" t="n">
         <v>261.9554205493159</v>
       </c>
       <c r="M26" t="n">
-        <v>296.6579549473675</v>
+        <v>296.6579549473667</v>
       </c>
       <c r="N26" t="n">
-        <v>291.1026583776452</v>
+        <v>291.1026583776453</v>
       </c>
       <c r="O26" t="n">
         <v>249.4590532043954</v>
       </c>
       <c r="P26" t="n">
-        <v>199.5000719991581</v>
+        <v>199.5000719991582</v>
       </c>
       <c r="Q26" t="n">
-        <v>124.4440857713489</v>
+        <v>124.444085771349</v>
       </c>
       <c r="R26" t="n">
-        <v>18.72404447471601</v>
+        <v>18.72404447471609</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36726,13 +36726,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>28.25526472311999</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>67.65779331932868</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -36747,10 +36747,10 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>48.15178823687899</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.98712986215332</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -36759,10 +36759,10 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>188.4800607848814</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>48.571915356599</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0926468199194</v>
+        <v>137.0926468199193</v>
       </c>
       <c r="K29" t="n">
         <v>207.6626829324723</v>
       </c>
       <c r="L29" t="n">
-        <v>261.9554205493159</v>
+        <v>261.9554205493158</v>
       </c>
       <c r="M29" t="n">
-        <v>296.6579549473675</v>
+        <v>296.6579549473674</v>
       </c>
       <c r="N29" t="n">
         <v>291.1026583776452</v>
       </c>
       <c r="O29" t="n">
-        <v>249.4590532043954</v>
+        <v>249.4590532043953</v>
       </c>
       <c r="P29" t="n">
         <v>199.5000719991581</v>
       </c>
       <c r="Q29" t="n">
-        <v>124.4440857713489</v>
+        <v>124.4440857713488</v>
       </c>
       <c r="R29" t="n">
-        <v>18.72404447471601</v>
+        <v>18.72404447471598</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36993,10 +36993,10 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>181.5009521299002</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>55.55102401158081</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -37005,10 +37005,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>150.9709959836541</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.08098015782704</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>137.0926468199194</v>
       </c>
       <c r="K32" t="n">
-        <v>207.6626829324723</v>
+        <v>207.6626829324724</v>
       </c>
       <c r="L32" t="n">
         <v>261.9554205493159</v>
       </c>
       <c r="M32" t="n">
-        <v>296.6579549473675</v>
+        <v>296.6579549473673</v>
       </c>
       <c r="N32" t="n">
         <v>291.1026583776453</v>
@@ -37084,13 +37084,13 @@
         <v>249.4590532043954</v>
       </c>
       <c r="P32" t="n">
-        <v>199.5000719991581</v>
+        <v>199.5000719991582</v>
       </c>
       <c r="Q32" t="n">
         <v>124.4440857713489</v>
       </c>
       <c r="R32" t="n">
-        <v>18.72404447471604</v>
+        <v>18.72404447471606</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37203,16 +37203,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>24.31631911274491</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>67.6577933193287</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>71.16430235781442</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>73.91356135159276</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37230,7 +37230,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>51.26197007165466</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -37239,7 +37239,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>176.1338492943735</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -37248,7 +37248,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>9.656156775452416</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37306,34 +37306,34 @@
         <v>160.4872950285468</v>
       </c>
       <c r="K35" t="n">
-        <v>231.0573311410998</v>
+        <v>231.0573311410997</v>
       </c>
       <c r="L35" t="n">
-        <v>49.11497697927649</v>
+        <v>285.3500687579433</v>
       </c>
       <c r="M35" t="n">
-        <v>320.0526031559949</v>
+        <v>83.81751137732807</v>
       </c>
       <c r="N35" t="n">
         <v>314.4973065862727</v>
       </c>
       <c r="O35" t="n">
-        <v>36.61860963435599</v>
+        <v>272.8537014130228</v>
       </c>
       <c r="P35" t="n">
-        <v>127.2315567567821</v>
+        <v>38.83519895809118</v>
       </c>
       <c r="Q35" t="n">
-        <v>147.8387339799763</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>42.11869268334345</v>
+        <v>42.11869268334343</v>
       </c>
       <c r="S35" t="n">
-        <v>8.995665063189263</v>
+        <v>8.995665063189234</v>
       </c>
       <c r="T35" t="n">
-        <v>13.82253142032224</v>
+        <v>13.82253142032221</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37440,7 +37440,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>3.7334666604578</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -37452,7 +37452,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>67.53978069698852</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -37479,19 +37479,19 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>116.8209311914414</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>33.0508049840798</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0.8922673377040731</v>
+        <v>0.8922673377040446</v>
       </c>
       <c r="T37" t="n">
-        <v>12.49687884991522</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -37543,34 +37543,34 @@
         <v>160.4872950285468</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>231.0573311410997</v>
       </c>
       <c r="L38" t="n">
-        <v>184.5091446693724</v>
+        <v>49.11497697927649</v>
       </c>
       <c r="M38" t="n">
-        <v>320.0526031559949</v>
+        <v>83.81751137732807</v>
       </c>
       <c r="N38" t="n">
-        <v>314.4973065862727</v>
+        <v>260.9528358186124</v>
       </c>
       <c r="O38" t="n">
-        <v>36.61860963435599</v>
+        <v>272.8537014130228</v>
       </c>
       <c r="P38" t="n">
-        <v>222.8947202077856</v>
+        <v>222.8947202077855</v>
       </c>
       <c r="Q38" t="n">
         <v>147.8387339799763</v>
       </c>
       <c r="R38" t="n">
-        <v>42.11869268334348</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>8.995665063189291</v>
+        <v>8.995665063189234</v>
       </c>
       <c r="T38" t="n">
-        <v>13.82253142032227</v>
+        <v>13.82253142032221</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37692,10 +37692,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>70.45927267739772</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>46.3616585140437</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -37719,13 +37719,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>109.4756283664545</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>8.23757016269078</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>0.8922673377040446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -37777,37 +37777,37 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>160.4872950285468</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>231.0573311410997</v>
+        <v>231.0573311410996</v>
       </c>
       <c r="L41" t="n">
-        <v>49.11497697927649</v>
+        <v>285.3500687579432</v>
       </c>
       <c r="M41" t="n">
-        <v>83.81751137732807</v>
+        <v>320.0526031559948</v>
       </c>
       <c r="N41" t="n">
-        <v>218.8341431352693</v>
+        <v>314.4973065862725</v>
       </c>
       <c r="O41" t="n">
-        <v>272.8537014130228</v>
+        <v>36.61860963435599</v>
       </c>
       <c r="P41" t="n">
-        <v>222.8947202077855</v>
+        <v>60.479425069852</v>
       </c>
       <c r="Q41" t="n">
-        <v>147.8387339799763</v>
+        <v>147.8387339799762</v>
       </c>
       <c r="R41" t="n">
-        <v>42.11869268334343</v>
+        <v>42.11869268334334</v>
       </c>
       <c r="S41" t="n">
-        <v>8.995665063189234</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>13.82253142032221</v>
+        <v>13.82253142032212</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37920,10 +37920,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>94.55895056644181</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>23.15424796270368</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>104.3240523415267</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -37962,10 +37962,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>0.8922673377039594</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>12.4968788499151</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -38014,34 +38014,34 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>160.4872950285468</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>231.0573311410997</v>
       </c>
       <c r="L44" t="n">
-        <v>49.11497697927649</v>
+        <v>285.3500687579433</v>
       </c>
       <c r="M44" t="n">
         <v>320.0526031559949</v>
       </c>
       <c r="N44" t="n">
-        <v>78.26221480760586</v>
+        <v>314.4973065862727</v>
       </c>
       <c r="O44" t="n">
-        <v>177.1905379620196</v>
+        <v>272.8537014130228</v>
       </c>
       <c r="P44" t="n">
-        <v>222.8947202077855</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>147.8387339799763</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>42.11869268334343</v>
+        <v>14.20175995450391</v>
       </c>
       <c r="S44" t="n">
-        <v>8.995665063189234</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>13.82253142032221</v>
@@ -38169,7 +38169,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>71.5464364455064</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>117.7131985291455</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -38196,13 +38196,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>33.05080498407978</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0.8922673377040446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>12.22368976185526</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
